--- a/016/T4B/T4B.xlsx
+++ b/016/T4B/T4B.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Ambiente de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAII\016\T4B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E13EE1-5B3D-4A03-B325-F91653B9812B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1563F9-D135-4BEE-A19F-119B96AC2DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{607D7311-D258-4AD3-A8E4-DF0E570C6269}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="108">
   <si>
     <t>ℓ (cm)</t>
   </si>
@@ -780,9 +780,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>M (kg)</t>
-  </si>
-  <si>
     <t>M (g)</t>
   </si>
   <si>
@@ -1181,13 +1178,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,19 +1287,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1317,13 +1305,43 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1332,32 +1350,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -22887,7 +22884,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>109095</xdr:colOff>
+      <xdr:colOff>89043</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -23799,8 +23796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF06227-EA6D-42A4-B948-14AB097D3D4D}">
   <dimension ref="B2:BL120"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:C36"/>
+    <sheetView topLeftCell="F1" zoomScale="63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23822,1790 +23819,1749 @@
     <col min="17" max="17" width="11.88671875" style="1" customWidth="1"/>
     <col min="18" max="18" width="13.44140625" style="1" customWidth="1"/>
     <col min="19" max="19" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="8.88671875" style="1"/>
+    <col min="20" max="21" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10.77734375" style="1" customWidth="1"/>
     <col min="23" max="23" width="11.21875" style="1" customWidth="1"/>
     <col min="24" max="24" width="12.88671875" style="1" customWidth="1"/>
     <col min="25" max="25" width="10.44140625" style="1" customWidth="1"/>
     <col min="26" max="26" width="10.33203125" style="1" customWidth="1"/>
-    <col min="27" max="30" width="8.88671875" style="1"/>
+    <col min="27" max="27" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="11.77734375" style="1" customWidth="1"/>
     <col min="32" max="32" width="11.88671875" style="1" customWidth="1"/>
     <col min="33" max="33" width="11.77734375" style="1" customWidth="1"/>
     <col min="34" max="34" width="12.88671875" style="1" customWidth="1"/>
     <col min="35" max="35" width="15.6640625" style="1" customWidth="1"/>
-    <col min="36" max="36" width="8.88671875" style="1"/>
-    <col min="37" max="37" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="39" width="13" style="1" customWidth="1"/>
-    <col min="40" max="45" width="8.88671875" style="1"/>
+    <col min="40" max="41" width="8.88671875" style="1"/>
+    <col min="42" max="43" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="8.88671875" style="1"/>
     <col min="46" max="46" width="11.33203125" style="1" customWidth="1"/>
-    <col min="47" max="47" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="48" max="62" width="8.88671875" style="1"/>
     <col min="63" max="63" width="11.21875" style="1" customWidth="1"/>
     <col min="64" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:32" x14ac:dyDescent="0.3">
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="2">
         <v>0.01</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="4:32" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="2">
         <f>E2*0.01</f>
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="2"/>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K3" s="2"/>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="2" t="e">
         <f>SQRT((AC12/2*PI()*AB12*AB13)^2+(PI()/4*AB12^2*AC13)^2)</f>
-        <v>7.2348347062973485E-9</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="4:32" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4" t="s">
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4" t="s">
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="AA5" s="4" t="s">
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="AA5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
     </row>
     <row r="6" spans="4:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="5" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="S6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="T6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="U6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V6" s="5" t="s">
+      <c r="V6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="W6" s="5" t="s">
+      <c r="W6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="X6" s="5" t="s">
+      <c r="X6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AA6" s="5" t="s">
+      <c r="AA6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AB6" s="5" t="s">
+      <c r="AB6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AC6" s="5" t="s">
+      <c r="AC6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AE6" s="5" t="s">
+      <c r="AE6" s="4" t="s">
         <v>25</v>
       </c>
       <c r="AF6" s="2">
         <f>PI()*(AB7/2)^2 * AC7</f>
-        <v>2.7249582487022665E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="4:32" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D7" s="17"/>
-      <c r="E7" s="3">
+      <c r="D7" s="13"/>
+      <c r="E7" s="12">
         <f>(D7*10^-2)^4</f>
         <v>0</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="12">
         <f>ABS(4*E7^3*E$3)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="19"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="2">
         <f>G7/25.5</f>
         <v>0</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="12">
         <f>AVERAGE(H7:H8)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="12">
         <f>SQRT(2)/51 * H$2</f>
         <v>2.7729677693590099E-4</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="12">
         <f>I7^2</f>
         <v>0</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="12">
         <f>ABS(2*I7*J7)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="19"/>
+      <c r="M7" s="9"/>
       <c r="N7" s="2">
         <f>M7/50.5</f>
         <v>0</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="12">
         <f>AVERAGE(N7:N8)</f>
         <v>0</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="12">
         <f>SQRT(2)/101 * H$2</f>
         <v>1.4002114478941537E-4</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="12">
         <f>O7^2</f>
         <v>0</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="12">
         <f>ABS(2*O7*P7)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="19"/>
+      <c r="S7" s="9"/>
       <c r="T7" s="2">
         <f>S7/75.5</f>
         <v>0</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U7" s="12">
         <f>AVERAGE(T7:T8)</f>
         <v>0</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V7" s="12">
         <f>SQRT(2)/151 * H$2</f>
         <v>9.3656527309476505E-5</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="12">
         <f>U7^2</f>
         <v>0</v>
       </c>
-      <c r="X7" s="3">
+      <c r="X7" s="12">
         <f>ABS(2*U7*V7)</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="2">
-        <f>21.66*10^-3</f>
-        <v>2.1660000000000002E-2</v>
-      </c>
-      <c r="AB7" s="11">
-        <f>1.97*10^-3</f>
-        <v>1.97E-3</v>
-      </c>
-      <c r="AC7" s="10">
-        <f>89.4*10^-2</f>
-        <v>0.89400000000000013</v>
-      </c>
-      <c r="AE7" s="8" t="s">
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="7"/>
+      <c r="AE7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AF7" s="2" t="e">
         <f>AA12/AF6</f>
-        <v>7948.7456405305866</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="4:32" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D8" s="17"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="19"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="2">
         <f t="shared" ref="H8:H32" si="0">G8/25.5</f>
         <v>0</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="19"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="9"/>
       <c r="N8" s="2">
         <f t="shared" ref="N8:N32" si="1">M8/50.5</f>
         <v>0</v>
       </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="19"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="9"/>
       <c r="T8" s="2">
         <f t="shared" ref="T8:T32" si="2">S8/75.5</f>
         <v>0</v>
       </c>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="AA8" s="2">
-        <f>21.66*10^-3</f>
-        <v>2.1660000000000002E-2</v>
-      </c>
-      <c r="AB8" s="11">
-        <f t="shared" ref="AB8:AB9" si="3">1.97*10^-3</f>
-        <v>1.97E-3</v>
-      </c>
-      <c r="AC8" s="2">
-        <f>89.35*10^-2</f>
-        <v>0.89349999999999996</v>
-      </c>
-      <c r="AE8" s="8" t="s">
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="2"/>
+      <c r="AE8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="AF8" s="2" t="e">
         <f>SQRT((1/AF6 * AA13)^2+(AA12/AF6^2*N3)^2)</f>
-        <v>21.10412548853839</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="4:32" x14ac:dyDescent="0.3">
-      <c r="D9" s="17"/>
-      <c r="E9" s="3">
+      <c r="D9" s="13"/>
+      <c r="E9" s="12">
         <f>(D9*10^-2)^4</f>
         <v>0</v>
       </c>
-      <c r="F9" s="3">
-        <f t="shared" ref="F9" si="4">ABS(4*E9^3*E$3)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="19"/>
+      <c r="F9" s="12">
+        <f t="shared" ref="F9" si="3">ABS(4*E9^3*E$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="9"/>
       <c r="H9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="3">
-        <f t="shared" ref="I9" si="5">AVERAGE(H9:H10)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <f t="shared" ref="J9" si="6">SQRT(2)/51 * H$2</f>
+      <c r="I9" s="12">
+        <f t="shared" ref="I9" si="4">AVERAGE(H9:H10)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <f t="shared" ref="J9" si="5">SQRT(2)/51 * H$2</f>
         <v>2.7729677693590099E-4</v>
       </c>
-      <c r="K9" s="3">
-        <f t="shared" ref="K9" si="7">I9^2</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <f t="shared" ref="L9" si="8">ABS(2*I9*J9)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="19"/>
+      <c r="K9" s="12">
+        <f t="shared" ref="K9" si="6">I9^2</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="12">
+        <f t="shared" ref="L9" si="7">ABS(2*I9*J9)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="9"/>
       <c r="N9" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O9" s="3">
-        <f t="shared" ref="O9" si="9">AVERAGE(N9:N10)</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <f t="shared" ref="P9" si="10">SQRT(2)/101 * H$2</f>
+      <c r="O9" s="12">
+        <f t="shared" ref="O9" si="8">AVERAGE(N9:N10)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="12">
+        <f t="shared" ref="P9" si="9">SQRT(2)/101 * H$2</f>
         <v>1.4002114478941537E-4</v>
       </c>
-      <c r="Q9" s="3">
-        <f t="shared" ref="Q9" si="11">O9^2</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="3">
-        <f t="shared" ref="R9" si="12">ABS(2*O9*P9)</f>
-        <v>0</v>
-      </c>
-      <c r="S9" s="19"/>
+      <c r="Q9" s="12">
+        <f t="shared" ref="Q9" si="10">O9^2</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="12">
+        <f t="shared" ref="R9" si="11">ABS(2*O9*P9)</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="9"/>
       <c r="T9" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U9" s="3">
-        <f t="shared" ref="U9" si="13">AVERAGE(T9:T10)</f>
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
-        <f t="shared" ref="V9" si="14">SQRT(2)/151 * H$2</f>
+      <c r="U9" s="12">
+        <f t="shared" ref="U9" si="12">AVERAGE(T9:T10)</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="12">
+        <f t="shared" ref="V9" si="13">SQRT(2)/151 * H$2</f>
         <v>9.3656527309476505E-5</v>
       </c>
-      <c r="W9" s="3">
-        <f t="shared" ref="W9" si="15">U9^2</f>
-        <v>0</v>
-      </c>
-      <c r="X9" s="3">
-        <f t="shared" ref="X9" si="16">ABS(2*U9*V9)</f>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="2">
-        <f>21.66*10^-3</f>
-        <v>2.1660000000000002E-2</v>
-      </c>
-      <c r="AB9" s="11">
-        <f t="shared" si="3"/>
-        <v>1.97E-3</v>
-      </c>
-      <c r="AC9" s="2">
-        <f>89.35*10^-2</f>
-        <v>0.89349999999999996</v>
-      </c>
-      <c r="AE9" s="8" t="s">
+      <c r="W9" s="12">
+        <f t="shared" ref="W9" si="14">U9^2</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="12">
+        <f t="shared" ref="X9" si="15">ABS(2*U9*V9)</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="2"/>
+      <c r="AE9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AF9" s="9">
+      <c r="AF9" s="6" t="e">
         <f>AF8/AF7</f>
-        <v>2.6550258925041748E-3</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="4:32" x14ac:dyDescent="0.3">
-      <c r="D10" s="17"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="19"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="19"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="9"/>
       <c r="N10" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="19"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="9"/>
       <c r="T10" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="AA10" s="2">
-        <f>21.66*10^-3</f>
-        <v>2.1660000000000002E-2</v>
-      </c>
-      <c r="AB10" s="11">
-        <f>1.985*10^-3</f>
-        <v>1.9850000000000002E-3</v>
-      </c>
-      <c r="AC10" s="10">
-        <f>89.4*10^-2</f>
-        <v>0.89400000000000013</v>
-      </c>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="7"/>
     </row>
     <row r="11" spans="4:32" x14ac:dyDescent="0.3">
-      <c r="D11" s="17"/>
-      <c r="E11" s="3">
+      <c r="D11" s="13"/>
+      <c r="E11" s="12">
         <f>(D11*10^-2)^4</f>
         <v>0</v>
       </c>
-      <c r="F11" s="3">
-        <f t="shared" ref="F11" si="17">ABS(4*E11^3*E$3)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="19"/>
+      <c r="F11" s="12">
+        <f t="shared" ref="F11" si="16">ABS(4*E11^3*E$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="9"/>
       <c r="H11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="3">
-        <f t="shared" ref="I11" si="18">AVERAGE(H11:H12)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <f t="shared" ref="J11" si="19">SQRT(2)/51 * H$2</f>
+      <c r="I11" s="12">
+        <f t="shared" ref="I11" si="17">AVERAGE(H11:H12)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <f t="shared" ref="J11" si="18">SQRT(2)/51 * H$2</f>
         <v>2.7729677693590099E-4</v>
       </c>
-      <c r="K11" s="3">
-        <f t="shared" ref="K11" si="20">I11^2</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="3">
-        <f t="shared" ref="L11" si="21">ABS(2*I11*J11)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="19"/>
+      <c r="K11" s="12">
+        <f t="shared" ref="K11" si="19">I11^2</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="12">
+        <f t="shared" ref="L11" si="20">ABS(2*I11*J11)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="9"/>
       <c r="N11" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O11" s="3">
-        <f t="shared" ref="O11" si="22">AVERAGE(N11:N12)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
-        <f t="shared" ref="P11" si="23">SQRT(2)/101 * H$2</f>
+      <c r="O11" s="12">
+        <f t="shared" ref="O11" si="21">AVERAGE(N11:N12)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="12">
+        <f t="shared" ref="P11" si="22">SQRT(2)/101 * H$2</f>
         <v>1.4002114478941537E-4</v>
       </c>
-      <c r="Q11" s="3">
-        <f t="shared" ref="Q11" si="24">O11^2</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="3">
-        <f t="shared" ref="R11" si="25">ABS(2*O11*P11)</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="19"/>
+      <c r="Q11" s="12">
+        <f t="shared" ref="Q11" si="23">O11^2</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="12">
+        <f t="shared" ref="R11" si="24">ABS(2*O11*P11)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="9"/>
       <c r="T11" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U11" s="3">
-        <f t="shared" ref="U11" si="26">AVERAGE(T11:T12)</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="3">
-        <f t="shared" ref="V11" si="27">SQRT(2)/151 * H$2</f>
+      <c r="U11" s="12">
+        <f t="shared" ref="U11" si="25">AVERAGE(T11:T12)</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="12">
+        <f t="shared" ref="V11" si="26">SQRT(2)/151 * H$2</f>
         <v>9.3656527309476505E-5</v>
       </c>
-      <c r="W11" s="3">
-        <f t="shared" ref="W11" si="28">U11^2</f>
-        <v>0</v>
-      </c>
-      <c r="X11" s="3">
-        <f t="shared" ref="X11" si="29">ABS(2*U11*V11)</f>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="2">
-        <f>21.66*10^-3</f>
-        <v>2.1660000000000002E-2</v>
-      </c>
-      <c r="AB11" s="2">
-        <f>1.975*10^-3</f>
-        <v>1.9750000000000002E-3</v>
-      </c>
-      <c r="AC11" s="10">
-        <f>89.4*10^-2</f>
-        <v>0.89400000000000013</v>
-      </c>
+      <c r="W11" s="12">
+        <f t="shared" ref="W11" si="27">U11^2</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="12">
+        <f t="shared" ref="X11" si="28">ABS(2*U11*V11)</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="7"/>
     </row>
     <row r="12" spans="4:32" x14ac:dyDescent="0.3">
-      <c r="D12" s="17"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="19"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="19"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="9"/>
       <c r="N12" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="19"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="9"/>
       <c r="T12" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Z12" s="5" t="s">
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Z12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="AA12" s="2" t="e">
         <f>AVERAGE(AA7:AA11)</f>
-        <v>2.1660000000000002E-2</v>
-      </c>
-      <c r="AB12" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB12" s="2" t="e">
         <f>AVERAGE(AB7:AB11)</f>
-        <v>1.9740000000000001E-3</v>
-      </c>
-      <c r="AC12" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC12" s="2" t="e">
         <f>AVERAGE(AC7:AC11)</f>
-        <v>0.89380000000000004</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="4:32" x14ac:dyDescent="0.3">
-      <c r="D13" s="17"/>
-      <c r="E13" s="3">
+      <c r="D13" s="13"/>
+      <c r="E13" s="12">
         <f>(D13*10^-2)^4</f>
         <v>0</v>
       </c>
-      <c r="F13" s="3">
-        <f t="shared" ref="F13" si="30">ABS(4*E13^3*E$3)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="19"/>
+      <c r="F13" s="12">
+        <f t="shared" ref="F13" si="29">ABS(4*E13^3*E$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="9"/>
       <c r="H13" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="3">
-        <f t="shared" ref="I13" si="31">AVERAGE(H13:H14)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <f t="shared" ref="J13" si="32">SQRT(2)/51 * H$2</f>
+      <c r="I13" s="12">
+        <f t="shared" ref="I13" si="30">AVERAGE(H13:H14)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <f t="shared" ref="J13" si="31">SQRT(2)/51 * H$2</f>
         <v>2.7729677693590099E-4</v>
       </c>
-      <c r="K13" s="3">
-        <f t="shared" ref="K13" si="33">I13^2</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="3">
-        <f t="shared" ref="L13" si="34">ABS(2*I13*J13)</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="19"/>
+      <c r="K13" s="12">
+        <f t="shared" ref="K13" si="32">I13^2</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="12">
+        <f t="shared" ref="L13" si="33">ABS(2*I13*J13)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="9"/>
       <c r="N13" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="3">
-        <f t="shared" ref="O13" si="35">AVERAGE(N13:N14)</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
-        <f t="shared" ref="P13" si="36">SQRT(2)/101 * H$2</f>
+      <c r="O13" s="12">
+        <f t="shared" ref="O13" si="34">AVERAGE(N13:N14)</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="12">
+        <f t="shared" ref="P13" si="35">SQRT(2)/101 * H$2</f>
         <v>1.4002114478941537E-4</v>
       </c>
-      <c r="Q13" s="3">
-        <f t="shared" ref="Q13" si="37">O13^2</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="3">
-        <f t="shared" ref="R13" si="38">ABS(2*O13*P13)</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="19"/>
+      <c r="Q13" s="12">
+        <f t="shared" ref="Q13" si="36">O13^2</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="12">
+        <f t="shared" ref="R13" si="37">ABS(2*O13*P13)</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="9"/>
       <c r="T13" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U13" s="3">
-        <f t="shared" ref="U13" si="39">AVERAGE(T13:T14)</f>
-        <v>0</v>
-      </c>
-      <c r="V13" s="3">
-        <f t="shared" ref="V13" si="40">SQRT(2)/151 * H$2</f>
+      <c r="U13" s="12">
+        <f t="shared" ref="U13" si="38">AVERAGE(T13:T14)</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="12">
+        <f t="shared" ref="V13" si="39">SQRT(2)/151 * H$2</f>
         <v>9.3656527309476505E-5</v>
       </c>
-      <c r="W13" s="3">
-        <f t="shared" ref="W13" si="41">U13^2</f>
-        <v>0</v>
-      </c>
-      <c r="X13" s="3">
-        <f t="shared" ref="X13" si="42">ABS(2*U13*V13)</f>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="5" t="s">
+      <c r="W13" s="12">
+        <f t="shared" ref="W13" si="40">U13^2</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="12">
+        <f t="shared" ref="X13" si="41">ABS(2*U13*V13)</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AA13" s="2">
+      <c r="AA13" s="2" t="e">
         <f>_xlfn.STDEV.P(AA7:AA11)/SQRT(5)</f>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB13" s="2" t="e">
         <f>_xlfn.STDEV.P(AB7:AB11)/SQRT(5)</f>
-        <v>2.6076809620811062E-6</v>
-      </c>
-      <c r="AC13" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC13" s="2" t="e">
         <f>_xlfn.STDEV.P(AC7:AC11)/SQRT(5)</f>
-        <v>1.0954451150106979E-4</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="4:32" x14ac:dyDescent="0.3">
-      <c r="D14" s="17"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="19"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="19"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="9"/>
       <c r="N14" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="19"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="9"/>
       <c r="T14" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
     </row>
     <row r="15" spans="4:32" x14ac:dyDescent="0.3">
-      <c r="D15" s="17"/>
-      <c r="E15" s="3">
+      <c r="D15" s="13"/>
+      <c r="E15" s="12">
         <f>(D15*10^-2)^4</f>
         <v>0</v>
       </c>
-      <c r="F15" s="3">
-        <f t="shared" ref="F15" si="43">ABS(4*E15^3*E$3)</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="19"/>
+      <c r="F15" s="12">
+        <f t="shared" ref="F15" si="42">ABS(4*E15^3*E$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="9"/>
       <c r="H15" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="3">
-        <f t="shared" ref="I15" si="44">AVERAGE(H15:H16)</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <f t="shared" ref="J15" si="45">SQRT(2)/51 * H$2</f>
+      <c r="I15" s="12">
+        <f t="shared" ref="I15" si="43">AVERAGE(H15:H16)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
+        <f t="shared" ref="J15" si="44">SQRT(2)/51 * H$2</f>
         <v>2.7729677693590099E-4</v>
       </c>
-      <c r="K15" s="3">
-        <f t="shared" ref="K15" si="46">I15^2</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <f t="shared" ref="L15" si="47">ABS(2*I15*J15)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="19"/>
+      <c r="K15" s="12">
+        <f t="shared" ref="K15" si="45">I15^2</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="12">
+        <f t="shared" ref="L15" si="46">ABS(2*I15*J15)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="9"/>
       <c r="N15" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O15" s="3">
-        <f t="shared" ref="O15" si="48">AVERAGE(N15:N16)</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <f t="shared" ref="P15" si="49">SQRT(2)/101 * H$2</f>
+      <c r="O15" s="12">
+        <f t="shared" ref="O15" si="47">AVERAGE(N15:N16)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="12">
+        <f t="shared" ref="P15" si="48">SQRT(2)/101 * H$2</f>
         <v>1.4002114478941537E-4</v>
       </c>
-      <c r="Q15" s="3">
-        <f t="shared" ref="Q15" si="50">O15^2</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <f t="shared" ref="R15" si="51">ABS(2*O15*P15)</f>
-        <v>0</v>
-      </c>
-      <c r="S15" s="19"/>
+      <c r="Q15" s="12">
+        <f t="shared" ref="Q15" si="49">O15^2</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="12">
+        <f t="shared" ref="R15" si="50">ABS(2*O15*P15)</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="9"/>
       <c r="T15" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U15" s="3">
-        <f t="shared" ref="U15" si="52">AVERAGE(T15:T16)</f>
-        <v>0</v>
-      </c>
-      <c r="V15" s="3">
-        <f t="shared" ref="V15" si="53">SQRT(2)/151 * H$2</f>
+      <c r="U15" s="12">
+        <f t="shared" ref="U15" si="51">AVERAGE(T15:T16)</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="12">
+        <f t="shared" ref="V15" si="52">SQRT(2)/151 * H$2</f>
         <v>9.3656527309476505E-5</v>
       </c>
-      <c r="W15" s="3">
-        <f t="shared" ref="W15" si="54">U15^2</f>
-        <v>0</v>
-      </c>
-      <c r="X15" s="3">
-        <f t="shared" ref="X15" si="55">ABS(2*U15*V15)</f>
+      <c r="W15" s="12">
+        <f t="shared" ref="W15" si="53">U15^2</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="12">
+        <f t="shared" ref="X15" si="54">ABS(2*U15*V15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="4:32" x14ac:dyDescent="0.3">
-      <c r="D16" s="17"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="19"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="19"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="9"/>
       <c r="N16" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="19"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="9"/>
       <c r="T16" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
     </row>
     <row r="17" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D17" s="17"/>
-      <c r="E17" s="3">
+      <c r="D17" s="13"/>
+      <c r="E17" s="12">
         <f>(D17*10^-2)^4</f>
         <v>0</v>
       </c>
-      <c r="F17" s="3">
-        <f t="shared" ref="F17" si="56">ABS(4*E17^3*E$3)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="19"/>
+      <c r="F17" s="12">
+        <f t="shared" ref="F17" si="55">ABS(4*E17^3*E$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="9"/>
       <c r="H17" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="3">
-        <f t="shared" ref="I17" si="57">AVERAGE(H17:H18)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <f t="shared" ref="J17" si="58">SQRT(2)/51 * H$2</f>
+      <c r="I17" s="12">
+        <f t="shared" ref="I17" si="56">AVERAGE(H17:H18)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <f t="shared" ref="J17" si="57">SQRT(2)/51 * H$2</f>
         <v>2.7729677693590099E-4</v>
       </c>
-      <c r="K17" s="3">
-        <f t="shared" ref="K17" si="59">I17^2</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <f t="shared" ref="L17" si="60">ABS(2*I17*J17)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="19"/>
+      <c r="K17" s="12">
+        <f t="shared" ref="K17" si="58">I17^2</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" ref="L17" si="59">ABS(2*I17*J17)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="9"/>
       <c r="N17" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O17" s="3">
-        <f t="shared" ref="O17" si="61">AVERAGE(N17:N18)</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <f t="shared" ref="P17" si="62">SQRT(2)/101 * H$2</f>
+      <c r="O17" s="12">
+        <f t="shared" ref="O17" si="60">AVERAGE(N17:N18)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="12">
+        <f t="shared" ref="P17" si="61">SQRT(2)/101 * H$2</f>
         <v>1.4002114478941537E-4</v>
       </c>
-      <c r="Q17" s="3">
-        <f t="shared" ref="Q17" si="63">O17^2</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <f t="shared" ref="R17" si="64">ABS(2*O17*P17)</f>
-        <v>0</v>
-      </c>
-      <c r="S17" s="19"/>
+      <c r="Q17" s="12">
+        <f t="shared" ref="Q17" si="62">O17^2</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="12">
+        <f t="shared" ref="R17" si="63">ABS(2*O17*P17)</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="9"/>
       <c r="T17" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U17" s="3">
-        <f t="shared" ref="U17" si="65">AVERAGE(T17:T18)</f>
-        <v>0</v>
-      </c>
-      <c r="V17" s="3">
-        <f t="shared" ref="V17" si="66">SQRT(2)/151 * H$2</f>
+      <c r="U17" s="12">
+        <f t="shared" ref="U17" si="64">AVERAGE(T17:T18)</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="12">
+        <f t="shared" ref="V17" si="65">SQRT(2)/151 * H$2</f>
         <v>9.3656527309476505E-5</v>
       </c>
-      <c r="W17" s="3">
-        <f t="shared" ref="W17" si="67">U17^2</f>
-        <v>0</v>
-      </c>
-      <c r="X17" s="3">
-        <f t="shared" ref="X17" si="68">ABS(2*U17*V17)</f>
+      <c r="W17" s="12">
+        <f t="shared" ref="W17" si="66">U17^2</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="12">
+        <f t="shared" ref="X17" si="67">ABS(2*U17*V17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D18" s="17"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="19"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="19"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="9"/>
       <c r="N18" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="19"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="9"/>
       <c r="T18" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
     </row>
     <row r="19" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D19" s="17"/>
-      <c r="E19" s="3">
+      <c r="D19" s="13"/>
+      <c r="E19" s="12">
         <f>(D19*10^-2)^4</f>
         <v>0</v>
       </c>
-      <c r="F19" s="3">
-        <f t="shared" ref="F19" si="69">ABS(4*E19^3*E$3)</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="19"/>
+      <c r="F19" s="12">
+        <f t="shared" ref="F19" si="68">ABS(4*E19^3*E$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="9"/>
       <c r="H19" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19" s="3">
-        <f t="shared" ref="I19" si="70">AVERAGE(H19:H20)</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <f t="shared" ref="J19" si="71">SQRT(2)/51 * H$2</f>
+      <c r="I19" s="12">
+        <f t="shared" ref="I19" si="69">AVERAGE(H19:H20)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="12">
+        <f t="shared" ref="J19" si="70">SQRT(2)/51 * H$2</f>
         <v>2.7729677693590099E-4</v>
       </c>
-      <c r="K19" s="3">
-        <f t="shared" ref="K19" si="72">I19^2</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="3">
-        <f t="shared" ref="L19" si="73">ABS(2*I19*J19)</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="19"/>
+      <c r="K19" s="12">
+        <f t="shared" ref="K19" si="71">I19^2</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="12">
+        <f t="shared" ref="L19" si="72">ABS(2*I19*J19)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="9"/>
       <c r="N19" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O19" s="3">
-        <f t="shared" ref="O19" si="74">AVERAGE(N19:N20)</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="3">
-        <f t="shared" ref="P19" si="75">SQRT(2)/101 * H$2</f>
+      <c r="O19" s="12">
+        <f t="shared" ref="O19" si="73">AVERAGE(N19:N20)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="12">
+        <f t="shared" ref="P19" si="74">SQRT(2)/101 * H$2</f>
         <v>1.4002114478941537E-4</v>
       </c>
-      <c r="Q19" s="3">
-        <f t="shared" ref="Q19" si="76">O19^2</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="3">
-        <f t="shared" ref="R19" si="77">ABS(2*O19*P19)</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="19"/>
+      <c r="Q19" s="12">
+        <f t="shared" ref="Q19" si="75">O19^2</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="12">
+        <f t="shared" ref="R19" si="76">ABS(2*O19*P19)</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="9"/>
       <c r="T19" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U19" s="3">
-        <f t="shared" ref="U19" si="78">AVERAGE(T19:T20)</f>
-        <v>0</v>
-      </c>
-      <c r="V19" s="3">
-        <f t="shared" ref="V19" si="79">SQRT(2)/151 * H$2</f>
+      <c r="U19" s="12">
+        <f t="shared" ref="U19" si="77">AVERAGE(T19:T20)</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="12">
+        <f t="shared" ref="V19" si="78">SQRT(2)/151 * H$2</f>
         <v>9.3656527309476505E-5</v>
       </c>
-      <c r="W19" s="3">
-        <f t="shared" ref="W19" si="80">U19^2</f>
-        <v>0</v>
-      </c>
-      <c r="X19" s="3">
-        <f t="shared" ref="X19" si="81">ABS(2*U19*V19)</f>
+      <c r="W19" s="12">
+        <f t="shared" ref="W19" si="79">U19^2</f>
+        <v>0</v>
+      </c>
+      <c r="X19" s="12">
+        <f t="shared" ref="X19" si="80">ABS(2*U19*V19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D20" s="17"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="19"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="9"/>
       <c r="H20" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="19"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="9"/>
       <c r="N20" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="19"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="9"/>
       <c r="T20" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
     </row>
     <row r="21" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D21" s="17"/>
-      <c r="E21" s="3">
+      <c r="D21" s="13"/>
+      <c r="E21" s="12">
         <f>(D21*10^-2)^4</f>
         <v>0</v>
       </c>
-      <c r="F21" s="3">
-        <f t="shared" ref="F21" si="82">ABS(4*E21^3*E$3)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="19"/>
+      <c r="F21" s="12">
+        <f t="shared" ref="F21" si="81">ABS(4*E21^3*E$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="9"/>
       <c r="H21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="3">
-        <f t="shared" ref="I21" si="83">AVERAGE(H21:H22)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <f t="shared" ref="J21" si="84">SQRT(2)/51 * H$2</f>
+      <c r="I21" s="12">
+        <f t="shared" ref="I21" si="82">AVERAGE(H21:H22)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
+        <f t="shared" ref="J21" si="83">SQRT(2)/51 * H$2</f>
         <v>2.7729677693590099E-4</v>
       </c>
-      <c r="K21" s="3">
-        <f t="shared" ref="K21" si="85">I21^2</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <f t="shared" ref="L21" si="86">ABS(2*I21*J21)</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="19"/>
+      <c r="K21" s="12">
+        <f t="shared" ref="K21" si="84">I21^2</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
+        <f t="shared" ref="L21" si="85">ABS(2*I21*J21)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="9"/>
       <c r="N21" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O21" s="3">
-        <f t="shared" ref="O21" si="87">AVERAGE(N21:N22)</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <f t="shared" ref="P21" si="88">SQRT(2)/101 * H$2</f>
+      <c r="O21" s="12">
+        <f t="shared" ref="O21" si="86">AVERAGE(N21:N22)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="12">
+        <f t="shared" ref="P21" si="87">SQRT(2)/101 * H$2</f>
         <v>1.4002114478941537E-4</v>
       </c>
-      <c r="Q21" s="3">
-        <f t="shared" ref="Q21" si="89">O21^2</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
-        <f t="shared" ref="R21" si="90">ABS(2*O21*P21)</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="19"/>
+      <c r="Q21" s="12">
+        <f t="shared" ref="Q21" si="88">O21^2</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="12">
+        <f t="shared" ref="R21" si="89">ABS(2*O21*P21)</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="9"/>
       <c r="T21" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U21" s="3">
-        <f t="shared" ref="U21" si="91">AVERAGE(T21:T22)</f>
-        <v>0</v>
-      </c>
-      <c r="V21" s="3">
-        <f t="shared" ref="V21" si="92">SQRT(2)/151 * H$2</f>
+      <c r="U21" s="12">
+        <f t="shared" ref="U21" si="90">AVERAGE(T21:T22)</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="12">
+        <f t="shared" ref="V21" si="91">SQRT(2)/151 * H$2</f>
         <v>9.3656527309476505E-5</v>
       </c>
-      <c r="W21" s="3">
-        <f t="shared" ref="W21" si="93">U21^2</f>
-        <v>0</v>
-      </c>
-      <c r="X21" s="3">
-        <f t="shared" ref="X21" si="94">ABS(2*U21*V21)</f>
+      <c r="W21" s="12">
+        <f t="shared" ref="W21" si="92">U21^2</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="12">
+        <f t="shared" ref="X21" si="93">ABS(2*U21*V21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D22" s="17"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="19"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="9"/>
       <c r="H22" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="19"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="9"/>
       <c r="N22" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="19"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="9"/>
       <c r="T22" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
     </row>
     <row r="23" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D23" s="17"/>
-      <c r="E23" s="3">
+      <c r="D23" s="13"/>
+      <c r="E23" s="12">
         <f>(D23*10^-2)^4</f>
         <v>0</v>
       </c>
-      <c r="F23" s="3">
-        <f t="shared" ref="F23" si="95">ABS(4*E23^3*E$3)</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="19"/>
+      <c r="F23" s="12">
+        <f t="shared" ref="F23" si="94">ABS(4*E23^3*E$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="9"/>
       <c r="H23" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I23" s="3">
-        <f t="shared" ref="I23" si="96">AVERAGE(H23:H24)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <f t="shared" ref="J23" si="97">SQRT(2)/51 * H$2</f>
+      <c r="I23" s="12">
+        <f t="shared" ref="I23" si="95">AVERAGE(H23:H24)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="12">
+        <f t="shared" ref="J23" si="96">SQRT(2)/51 * H$2</f>
         <v>2.7729677693590099E-4</v>
       </c>
-      <c r="K23" s="3">
-        <f t="shared" ref="K23" si="98">I23^2</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <f t="shared" ref="L23" si="99">ABS(2*I23*J23)</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="19"/>
+      <c r="K23" s="12">
+        <f t="shared" ref="K23" si="97">I23^2</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="12">
+        <f t="shared" ref="L23" si="98">ABS(2*I23*J23)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="9"/>
       <c r="N23" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O23" s="3">
-        <f t="shared" ref="O23" si="100">AVERAGE(N23:N24)</f>
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <f t="shared" ref="P23" si="101">SQRT(2)/101 * H$2</f>
+      <c r="O23" s="12">
+        <f t="shared" ref="O23" si="99">AVERAGE(N23:N24)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="12">
+        <f t="shared" ref="P23" si="100">SQRT(2)/101 * H$2</f>
         <v>1.4002114478941537E-4</v>
       </c>
-      <c r="Q23" s="3">
-        <f t="shared" ref="Q23" si="102">O23^2</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
-        <f t="shared" ref="R23" si="103">ABS(2*O23*P23)</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="19"/>
+      <c r="Q23" s="12">
+        <f t="shared" ref="Q23" si="101">O23^2</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="12">
+        <f t="shared" ref="R23" si="102">ABS(2*O23*P23)</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="9"/>
       <c r="T23" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U23" s="3">
-        <f t="shared" ref="U23" si="104">AVERAGE(T23:T24)</f>
-        <v>0</v>
-      </c>
-      <c r="V23" s="3">
-        <f t="shared" ref="V23" si="105">SQRT(2)/151 * H$2</f>
+      <c r="U23" s="12">
+        <f t="shared" ref="U23" si="103">AVERAGE(T23:T24)</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="12">
+        <f t="shared" ref="V23" si="104">SQRT(2)/151 * H$2</f>
         <v>9.3656527309476505E-5</v>
       </c>
-      <c r="W23" s="3">
-        <f t="shared" ref="W23" si="106">U23^2</f>
-        <v>0</v>
-      </c>
-      <c r="X23" s="3">
-        <f t="shared" ref="X23" si="107">ABS(2*U23*V23)</f>
+      <c r="W23" s="12">
+        <f t="shared" ref="W23" si="105">U23^2</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="12">
+        <f t="shared" ref="X23" si="106">ABS(2*U23*V23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D24" s="17"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="19"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="9"/>
       <c r="H24" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="19"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="9"/>
       <c r="N24" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="19"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="9"/>
       <c r="T24" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
     </row>
     <row r="25" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D25" s="17"/>
-      <c r="E25" s="3">
+      <c r="D25" s="13"/>
+      <c r="E25" s="12">
         <f>(D25*10^-2)^4</f>
         <v>0</v>
       </c>
-      <c r="F25" s="3">
-        <f t="shared" ref="F25" si="108">ABS(4*E25^3*E$3)</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="19"/>
+      <c r="F25" s="12">
+        <f t="shared" ref="F25" si="107">ABS(4*E25^3*E$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="9"/>
       <c r="H25" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="3">
-        <f t="shared" ref="I25" si="109">AVERAGE(H25:H26)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="3">
-        <f t="shared" ref="J25" si="110">SQRT(2)/51 * H$2</f>
+      <c r="I25" s="12">
+        <f t="shared" ref="I25" si="108">AVERAGE(H25:H26)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="12">
+        <f t="shared" ref="J25" si="109">SQRT(2)/51 * H$2</f>
         <v>2.7729677693590099E-4</v>
       </c>
-      <c r="K25" s="3">
-        <f t="shared" ref="K25" si="111">I25^2</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="3">
-        <f t="shared" ref="L25" si="112">ABS(2*I25*J25)</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="19"/>
+      <c r="K25" s="12">
+        <f t="shared" ref="K25" si="110">I25^2</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="12">
+        <f t="shared" ref="L25" si="111">ABS(2*I25*J25)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="9"/>
       <c r="N25" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O25" s="3">
-        <f t="shared" ref="O25" si="113">AVERAGE(N25:N26)</f>
-        <v>0</v>
-      </c>
-      <c r="P25" s="3">
-        <f t="shared" ref="P25" si="114">SQRT(2)/101 * H$2</f>
+      <c r="O25" s="12">
+        <f t="shared" ref="O25" si="112">AVERAGE(N25:N26)</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="12">
+        <f t="shared" ref="P25" si="113">SQRT(2)/101 * H$2</f>
         <v>1.4002114478941537E-4</v>
       </c>
-      <c r="Q25" s="3">
-        <f t="shared" ref="Q25" si="115">O25^2</f>
-        <v>0</v>
-      </c>
-      <c r="R25" s="3">
-        <f t="shared" ref="R25" si="116">ABS(2*O25*P25)</f>
-        <v>0</v>
-      </c>
-      <c r="S25" s="19"/>
+      <c r="Q25" s="12">
+        <f t="shared" ref="Q25" si="114">O25^2</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="12">
+        <f t="shared" ref="R25" si="115">ABS(2*O25*P25)</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="9"/>
       <c r="T25" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U25" s="3">
-        <f t="shared" ref="U25" si="117">AVERAGE(T25:T26)</f>
-        <v>0</v>
-      </c>
-      <c r="V25" s="3">
-        <f t="shared" ref="V25" si="118">SQRT(2)/151 * H$2</f>
+      <c r="U25" s="12">
+        <f t="shared" ref="U25" si="116">AVERAGE(T25:T26)</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="12">
+        <f t="shared" ref="V25" si="117">SQRT(2)/151 * H$2</f>
         <v>9.3656527309476505E-5</v>
       </c>
-      <c r="W25" s="3">
-        <f t="shared" ref="W25" si="119">U25^2</f>
-        <v>0</v>
-      </c>
-      <c r="X25" s="3">
-        <f t="shared" ref="X25" si="120">ABS(2*U25*V25)</f>
+      <c r="W25" s="12">
+        <f t="shared" ref="W25" si="118">U25^2</f>
+        <v>0</v>
+      </c>
+      <c r="X25" s="12">
+        <f t="shared" ref="X25" si="119">ABS(2*U25*V25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D26" s="17"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="19"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="9"/>
       <c r="H26" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="19"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="9"/>
       <c r="N26" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="19"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="9"/>
       <c r="T26" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
     </row>
     <row r="27" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D27" s="17"/>
-      <c r="E27" s="3">
+      <c r="D27" s="13"/>
+      <c r="E27" s="12">
         <f>(D27*10^-2)^4</f>
         <v>0</v>
       </c>
-      <c r="F27" s="3">
-        <f t="shared" ref="F27" si="121">ABS(4*E27^3*E$3)</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="19"/>
+      <c r="F27" s="12">
+        <f t="shared" ref="F27" si="120">ABS(4*E27^3*E$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="9"/>
       <c r="H27" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I27" s="3">
-        <f t="shared" ref="I27" si="122">AVERAGE(H27:H28)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <f t="shared" ref="J27" si="123">SQRT(2)/51 * H$2</f>
+      <c r="I27" s="12">
+        <f t="shared" ref="I27" si="121">AVERAGE(H27:H28)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="12">
+        <f t="shared" ref="J27" si="122">SQRT(2)/51 * H$2</f>
         <v>2.7729677693590099E-4</v>
       </c>
-      <c r="K27" s="3">
-        <f t="shared" ref="K27" si="124">I27^2</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <f t="shared" ref="L27" si="125">ABS(2*I27*J27)</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="19"/>
+      <c r="K27" s="12">
+        <f t="shared" ref="K27" si="123">I27^2</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="12">
+        <f t="shared" ref="L27" si="124">ABS(2*I27*J27)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="9"/>
       <c r="N27" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O27" s="3">
-        <f t="shared" ref="O27" si="126">AVERAGE(N27:N28)</f>
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <f t="shared" ref="P27" si="127">SQRT(2)/101 * H$2</f>
+      <c r="O27" s="12">
+        <f t="shared" ref="O27" si="125">AVERAGE(N27:N28)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="12">
+        <f t="shared" ref="P27" si="126">SQRT(2)/101 * H$2</f>
         <v>1.4002114478941537E-4</v>
       </c>
-      <c r="Q27" s="3">
-        <f t="shared" ref="Q27" si="128">O27^2</f>
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
-        <f t="shared" ref="R27" si="129">ABS(2*O27*P27)</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="19"/>
+      <c r="Q27" s="12">
+        <f t="shared" ref="Q27" si="127">O27^2</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="12">
+        <f t="shared" ref="R27" si="128">ABS(2*O27*P27)</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="9"/>
       <c r="T27" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U27" s="3">
-        <f t="shared" ref="U27" si="130">AVERAGE(T27:T28)</f>
-        <v>0</v>
-      </c>
-      <c r="V27" s="3">
-        <f t="shared" ref="V27" si="131">SQRT(2)/151 * H$2</f>
+      <c r="U27" s="12">
+        <f t="shared" ref="U27" si="129">AVERAGE(T27:T28)</f>
+        <v>0</v>
+      </c>
+      <c r="V27" s="12">
+        <f t="shared" ref="V27" si="130">SQRT(2)/151 * H$2</f>
         <v>9.3656527309476505E-5</v>
       </c>
-      <c r="W27" s="3">
-        <f t="shared" ref="W27" si="132">U27^2</f>
-        <v>0</v>
-      </c>
-      <c r="X27" s="3">
-        <f t="shared" ref="X27" si="133">ABS(2*U27*V27)</f>
+      <c r="W27" s="12">
+        <f t="shared" ref="W27" si="131">U27^2</f>
+        <v>0</v>
+      </c>
+      <c r="X27" s="12">
+        <f t="shared" ref="X27" si="132">ABS(2*U27*V27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D28" s="17"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="19"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="9"/>
       <c r="H28" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="19"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="9"/>
       <c r="N28" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="19"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="9"/>
       <c r="T28" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
     </row>
     <row r="29" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D29" s="17"/>
-      <c r="E29" s="3">
+      <c r="D29" s="13"/>
+      <c r="E29" s="12">
         <f>(D29*10^-2)^4</f>
         <v>0</v>
       </c>
-      <c r="F29" s="3">
-        <f t="shared" ref="F29" si="134">ABS(4*E29^3*E$3)</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="19"/>
+      <c r="F29" s="12">
+        <f t="shared" ref="F29" si="133">ABS(4*E29^3*E$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="9"/>
       <c r="H29" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I29" s="3">
-        <f t="shared" ref="I29" si="135">AVERAGE(H29:H30)</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <f t="shared" ref="J29" si="136">SQRT(2)/51 * H$2</f>
+      <c r="I29" s="12">
+        <f t="shared" ref="I29" si="134">AVERAGE(H29:H30)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="12">
+        <f t="shared" ref="J29" si="135">SQRT(2)/51 * H$2</f>
         <v>2.7729677693590099E-4</v>
       </c>
-      <c r="K29" s="3">
-        <f t="shared" ref="K29" si="137">I29^2</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <f t="shared" ref="L29" si="138">ABS(2*I29*J29)</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="19"/>
+      <c r="K29" s="12">
+        <f t="shared" ref="K29" si="136">I29^2</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="12">
+        <f t="shared" ref="L29" si="137">ABS(2*I29*J29)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="9"/>
       <c r="N29" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O29" s="3">
-        <f t="shared" ref="O29" si="139">AVERAGE(N29:N30)</f>
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <f t="shared" ref="P29" si="140">SQRT(2)/101 * H$2</f>
+      <c r="O29" s="12">
+        <f t="shared" ref="O29" si="138">AVERAGE(N29:N30)</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="12">
+        <f t="shared" ref="P29" si="139">SQRT(2)/101 * H$2</f>
         <v>1.4002114478941537E-4</v>
       </c>
-      <c r="Q29" s="3">
-        <f t="shared" ref="Q29" si="141">O29^2</f>
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
-        <f t="shared" ref="R29" si="142">ABS(2*O29*P29)</f>
-        <v>0</v>
-      </c>
-      <c r="S29" s="19"/>
+      <c r="Q29" s="12">
+        <f t="shared" ref="Q29" si="140">O29^2</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="12">
+        <f t="shared" ref="R29" si="141">ABS(2*O29*P29)</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="9"/>
       <c r="T29" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U29" s="3">
-        <f t="shared" ref="U29" si="143">AVERAGE(T29:T30)</f>
-        <v>0</v>
-      </c>
-      <c r="V29" s="3">
-        <f t="shared" ref="V29" si="144">SQRT(2)/151 * H$2</f>
+      <c r="U29" s="12">
+        <f t="shared" ref="U29" si="142">AVERAGE(T29:T30)</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="12">
+        <f t="shared" ref="V29" si="143">SQRT(2)/151 * H$2</f>
         <v>9.3656527309476505E-5</v>
       </c>
-      <c r="W29" s="3">
-        <f t="shared" ref="W29" si="145">U29^2</f>
-        <v>0</v>
-      </c>
-      <c r="X29" s="3">
-        <f t="shared" ref="X29" si="146">ABS(2*U29*V29)</f>
+      <c r="W29" s="12">
+        <f t="shared" ref="W29" si="144">U29^2</f>
+        <v>0</v>
+      </c>
+      <c r="X29" s="12">
+        <f t="shared" ref="X29" si="145">ABS(2*U29*V29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D30" s="17"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="19"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="9"/>
       <c r="H30" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="19"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="9"/>
       <c r="N30" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="19"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="9"/>
       <c r="T30" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
     </row>
     <row r="31" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D31" s="17"/>
-      <c r="E31" s="3">
+      <c r="D31" s="13"/>
+      <c r="E31" s="12">
         <f>(D31*10^-2)^4</f>
         <v>0</v>
       </c>
-      <c r="F31" s="3">
-        <f t="shared" ref="F31" si="147">ABS(4*E31^3*E$3)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="19"/>
+      <c r="F31" s="12">
+        <f t="shared" ref="F31" si="146">ABS(4*E31^3*E$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="9"/>
       <c r="H31" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I31" s="3">
-        <f t="shared" ref="I31" si="148">AVERAGE(H31:H32)</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="3">
-        <f t="shared" ref="J31" si="149">SQRT(2)/51 * H$2</f>
+      <c r="I31" s="12">
+        <f t="shared" ref="I31" si="147">AVERAGE(H31:H32)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="12">
+        <f t="shared" ref="J31" si="148">SQRT(2)/51 * H$2</f>
         <v>2.7729677693590099E-4</v>
       </c>
-      <c r="K31" s="3">
-        <f t="shared" ref="K31" si="150">I31^2</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="3">
-        <f t="shared" ref="L31" si="151">ABS(2*I31*J31)</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="19"/>
+      <c r="K31" s="12">
+        <f t="shared" ref="K31" si="149">I31^2</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="12">
+        <f t="shared" ref="L31" si="150">ABS(2*I31*J31)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="9"/>
       <c r="N31" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O31" s="3">
-        <f t="shared" ref="O31" si="152">AVERAGE(N31:N32)</f>
-        <v>0</v>
-      </c>
-      <c r="P31" s="3">
-        <f t="shared" ref="P31" si="153">SQRT(2)/101 * H$2</f>
+      <c r="O31" s="12">
+        <f t="shared" ref="O31" si="151">AVERAGE(N31:N32)</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="12">
+        <f t="shared" ref="P31" si="152">SQRT(2)/101 * H$2</f>
         <v>1.4002114478941537E-4</v>
       </c>
-      <c r="Q31" s="3">
-        <f t="shared" ref="Q31" si="154">O31^2</f>
-        <v>0</v>
-      </c>
-      <c r="R31" s="3">
-        <f t="shared" ref="R31" si="155">ABS(2*O31*P31)</f>
-        <v>0</v>
-      </c>
-      <c r="S31" s="19"/>
+      <c r="Q31" s="12">
+        <f t="shared" ref="Q31" si="153">O31^2</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="12">
+        <f t="shared" ref="R31" si="154">ABS(2*O31*P31)</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="9"/>
       <c r="T31" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U31" s="3">
-        <f t="shared" ref="U31" si="156">AVERAGE(T31:T32)</f>
-        <v>0</v>
-      </c>
-      <c r="V31" s="3">
-        <f t="shared" ref="V31" si="157">SQRT(2)/151 * H$2</f>
+      <c r="U31" s="12">
+        <f t="shared" ref="U31" si="155">AVERAGE(T31:T32)</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="12">
+        <f t="shared" ref="V31" si="156">SQRT(2)/151 * H$2</f>
         <v>9.3656527309476505E-5</v>
       </c>
-      <c r="W31" s="3">
-        <f t="shared" ref="W31" si="158">U31^2</f>
-        <v>0</v>
-      </c>
-      <c r="X31" s="3">
-        <f t="shared" ref="X31" si="159">ABS(2*U31*V31)</f>
+      <c r="W31" s="12">
+        <f t="shared" ref="W31" si="157">U31^2</f>
+        <v>0</v>
+      </c>
+      <c r="X31" s="12">
+        <f t="shared" ref="X31" si="158">ABS(2*U31*V31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D32" s="17"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="19"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="9"/>
       <c r="H32" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="19"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="9"/>
       <c r="N32" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
     </row>
     <row r="35" spans="3:64" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="12" t="s">
+      <c r="C35" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4" t="s">
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4" t="s">
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="AC35" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="12" t="s">
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="AC35" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AE35" s="12" t="s">
+      <c r="AE35" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AF35" s="14" t="s">
+      <c r="AF35" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="AG35" s="23"/>
-      <c r="AH35" s="23"/>
-      <c r="AI35" s="23"/>
-      <c r="AJ35" s="23"/>
-      <c r="AK35" s="23"/>
-      <c r="AL35" s="23"/>
-      <c r="AM35" s="7"/>
+      <c r="AG35" s="20"/>
+      <c r="AH35" s="20"/>
+      <c r="AI35" s="20"/>
+      <c r="AJ35" s="20"/>
+      <c r="AK35" s="20"/>
+      <c r="AL35" s="20"/>
+      <c r="AM35" s="21"/>
     </row>
     <row r="36" spans="3:64" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="5" t="s">
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J36" s="5" t="s">
+      <c r="J36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K36" s="5" t="s">
+      <c r="K36" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L36" s="5" t="s">
+      <c r="L36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M36" s="5" t="s">
+      <c r="M36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N36" s="5" t="s">
+      <c r="N36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O36" s="5" t="s">
+      <c r="O36" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P36" s="5" t="s">
+      <c r="P36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Q36" s="5" t="s">
+      <c r="Q36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AC36" s="12"/>
-      <c r="AD36" s="12"/>
-      <c r="AE36" s="12"/>
-      <c r="AF36" s="5" t="s">
+      <c r="AC36" s="16"/>
+      <c r="AD36" s="16"/>
+      <c r="AE36" s="16"/>
+      <c r="AF36" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AG36" s="5" t="s">
+      <c r="AG36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AH36" s="5" t="s">
+      <c r="AH36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AI36" s="5" t="s">
+      <c r="AI36" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AJ36" s="5" t="s">
+      <c r="AJ36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AK36" s="5" t="s">
+      <c r="AK36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AL36" s="5" t="s">
+      <c r="AL36" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AM36" s="5" t="s">
+      <c r="AM36" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -25631,7 +25587,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="2">
-        <f>D37*C$102+D$102</f>
+        <f t="shared" ref="H37:H49" si="159">D37*C$102+D$102</f>
         <v>0</v>
       </c>
       <c r="I37" s="2">
@@ -25647,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="2">
-        <f>D37*L$102+M$102</f>
+        <f t="shared" ref="L37:L49" si="160">D37*L$102+M$102</f>
         <v>0</v>
       </c>
       <c r="M37" s="2">
@@ -25663,7 +25619,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="2">
-        <f>D37*S$102+T$102</f>
+        <f t="shared" ref="P37:P49" si="161">D37*S$102+T$102</f>
         <v>0</v>
       </c>
       <c r="Q37" s="2">
@@ -25691,7 +25647,7 @@
         <v>0</v>
       </c>
       <c r="AH37" s="2">
-        <f>AVERAGE(F37,J37,N37)</f>
+        <f t="shared" ref="AH37:AH49" si="162">AVERAGE(F37,J37,N37)</f>
         <v>0</v>
       </c>
       <c r="AI37" s="2">
@@ -25737,11 +25693,11 @@
         <v>0</v>
       </c>
       <c r="H38" s="2">
-        <f>D38*C$102+D$102</f>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" ref="I38:I49" si="160">F38-H38</f>
+        <f t="shared" ref="I38:I49" si="163">F38-H38</f>
         <v>0</v>
       </c>
       <c r="J38" s="2">
@@ -25753,11 +25709,11 @@
         <v>0</v>
       </c>
       <c r="L38" s="2">
-        <f>D38*L$102+M$102</f>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="M38" s="2">
-        <f t="shared" ref="M38:M49" si="161">J38-L38</f>
+        <f t="shared" ref="M38:M49" si="164">J38-L38</f>
         <v>0</v>
       </c>
       <c r="N38" s="2">
@@ -25769,23 +25725,23 @@
         <v>0</v>
       </c>
       <c r="P38" s="2">
-        <f>D38*S$102+T$102</f>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="Q38" s="2">
-        <f t="shared" ref="Q38:Q49" si="162">N38-P38</f>
+        <f t="shared" ref="Q38:Q49" si="165">N38-P38</f>
         <v>0</v>
       </c>
       <c r="AC38" s="2">
-        <f t="shared" ref="AC38:AC45" si="163">C38</f>
+        <f t="shared" ref="AC38:AC45" si="166">C38</f>
         <v>0</v>
       </c>
       <c r="AD38" s="2">
-        <f t="shared" ref="AD38:AD45" si="164">D38</f>
+        <f t="shared" ref="AD38:AD45" si="167">D38</f>
         <v>0</v>
       </c>
       <c r="AE38" s="2">
-        <f t="shared" ref="AE38:AE45" si="165">E38</f>
+        <f t="shared" ref="AE38:AE45" si="168">E38</f>
         <v>0</v>
       </c>
       <c r="AF38" s="2">
@@ -25797,27 +25753,27 @@
         <v>0</v>
       </c>
       <c r="AH38" s="2">
-        <f>AVERAGE(F38,J38,N38)</f>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="AI38" s="2">
-        <f t="shared" ref="AI38:AI49" si="166">_xlfn.STDEV.P(F38,J38,N38)/SQRT(3)</f>
+        <f t="shared" ref="AI38:AI49" si="169">_xlfn.STDEV.P(F38,J38,N38)/SQRT(3)</f>
         <v>0</v>
       </c>
       <c r="AJ38" s="2">
-        <f t="shared" ref="AJ38:AJ49" si="167">AD38*AP$47+AQ$47</f>
+        <f t="shared" ref="AJ38:AJ49" si="170">AD38*AP$47+AQ$47</f>
         <v>0</v>
       </c>
       <c r="AK38" s="2">
-        <f t="shared" ref="AK38:AK49" si="168">AH38-AJ38</f>
+        <f t="shared" ref="AK38:AK49" si="171">AH38-AJ38</f>
         <v>0</v>
       </c>
       <c r="AL38" s="2" t="e">
-        <f t="shared" ref="AL38:AL49" si="169">LOG(AC38/100)</f>
+        <f t="shared" ref="AL38:AL49" si="172">LOG(AC38/100)</f>
         <v>#NUM!</v>
       </c>
       <c r="AM38" s="2" t="e">
-        <f t="shared" ref="AM38:AM49" si="170">LOG(AF38)</f>
+        <f t="shared" ref="AM38:AM49" si="173">LOG(AF38)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -25843,11 +25799,11 @@
         <v>0</v>
       </c>
       <c r="H39" s="2">
-        <f>D39*C$102+D$102</f>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="J39" s="2">
@@ -25859,11 +25815,11 @@
         <v>0</v>
       </c>
       <c r="L39" s="2">
-        <f>D39*L$102+M$102</f>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="M39" s="2">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="N39" s="2">
@@ -25875,23 +25831,23 @@
         <v>0</v>
       </c>
       <c r="P39" s="2">
-        <f>D39*S$102+T$102</f>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="Q39" s="2">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="AC39" s="2">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AD39" s="2">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="AE39" s="2">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="AF39" s="2">
@@ -25903,27 +25859,27 @@
         <v>0</v>
       </c>
       <c r="AH39" s="2">
-        <f>AVERAGE(F39,J39,N39)</f>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="AI39" s="2">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="AJ39" s="2">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="AK39" s="2">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="AL39" s="2" t="e">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>#NUM!</v>
       </c>
       <c r="AM39" s="2" t="e">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -25949,11 +25905,11 @@
         <v>0</v>
       </c>
       <c r="H40" s="2">
-        <f>D40*C$102+D$102</f>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="I40" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="J40" s="2">
@@ -25965,11 +25921,11 @@
         <v>0</v>
       </c>
       <c r="L40" s="2">
-        <f>D40*L$102+M$102</f>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="M40" s="2">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="N40" s="2">
@@ -25981,23 +25937,23 @@
         <v>0</v>
       </c>
       <c r="P40" s="2">
-        <f>D40*S$102+T$102</f>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="Q40" s="2">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="AC40" s="2">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AD40" s="2">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="AE40" s="2">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="AF40" s="2">
@@ -26009,27 +25965,27 @@
         <v>0</v>
       </c>
       <c r="AH40" s="2">
-        <f>AVERAGE(F40,J40,N40)</f>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="AI40" s="2">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="AJ40" s="2">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="AK40" s="2">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="AL40" s="2" t="e">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>#NUM!</v>
       </c>
       <c r="AM40" s="2" t="e">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -26055,11 +26011,11 @@
         <v>0</v>
       </c>
       <c r="H41" s="2">
-        <f>D41*C$102+D$102</f>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="I41" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="J41" s="2">
@@ -26071,11 +26027,11 @@
         <v>0</v>
       </c>
       <c r="L41" s="2">
-        <f>D41*L$102+M$102</f>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="M41" s="2">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="N41" s="2">
@@ -26087,23 +26043,23 @@
         <v>0</v>
       </c>
       <c r="P41" s="2">
-        <f>D41*S$102+T$102</f>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="Q41" s="2">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="AC41" s="2">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AD41" s="2">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="AE41" s="2">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="AF41" s="2">
@@ -26115,27 +26071,27 @@
         <v>0</v>
       </c>
       <c r="AH41" s="2">
-        <f>AVERAGE(F41,J41,N41)</f>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="AI41" s="2">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="AJ41" s="2">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="AK41" s="2">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="AL41" s="2" t="e">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>#NUM!</v>
       </c>
       <c r="AM41" s="2" t="e">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -26161,11 +26117,11 @@
         <v>0</v>
       </c>
       <c r="H42" s="2">
-        <f>D42*C$102+D$102</f>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="I42" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="J42" s="2">
@@ -26177,11 +26133,11 @@
         <v>0</v>
       </c>
       <c r="L42" s="2">
-        <f>D42*L$102+M$102</f>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="M42" s="2">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="N42" s="2">
@@ -26193,23 +26149,23 @@
         <v>0</v>
       </c>
       <c r="P42" s="2">
-        <f>D42*S$102+T$102</f>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="Q42" s="2">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="AC42" s="2">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AD42" s="2">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="AE42" s="2">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="AF42" s="2">
@@ -26221,27 +26177,27 @@
         <v>0</v>
       </c>
       <c r="AH42" s="2">
-        <f>AVERAGE(F42,J42,N42)</f>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="AI42" s="2">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="AJ42" s="2">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="AK42" s="2">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="AL42" s="2" t="e">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>#NUM!</v>
       </c>
       <c r="AM42" s="2" t="e">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -26267,11 +26223,11 @@
         <v>0</v>
       </c>
       <c r="H43" s="2">
-        <f>D43*C$102+D$102</f>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="I43" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="J43" s="2">
@@ -26283,11 +26239,11 @@
         <v>0</v>
       </c>
       <c r="L43" s="2">
-        <f>D43*L$102+M$102</f>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="M43" s="2">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="N43" s="2">
@@ -26299,23 +26255,23 @@
         <v>0</v>
       </c>
       <c r="P43" s="2">
-        <f>D43*S$102+T$102</f>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="Q43" s="2">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="AC43" s="2">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AD43" s="2">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="AE43" s="2">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="AF43" s="2">
@@ -26327,27 +26283,27 @@
         <v>0</v>
       </c>
       <c r="AH43" s="2">
-        <f>AVERAGE(F43,J43,N43)</f>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="AI43" s="2">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="AJ43" s="2">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="AK43" s="2">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="AL43" s="2" t="e">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>#NUM!</v>
       </c>
       <c r="AM43" s="2" t="e">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -26373,11 +26329,11 @@
         <v>0</v>
       </c>
       <c r="H44" s="2">
-        <f>D44*C$102+D$102</f>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="I44" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="J44" s="2">
@@ -26389,11 +26345,11 @@
         <v>0</v>
       </c>
       <c r="L44" s="2">
-        <f>D44*L$102+M$102</f>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="M44" s="2">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="N44" s="2">
@@ -26405,23 +26361,23 @@
         <v>0</v>
       </c>
       <c r="P44" s="2">
-        <f>D44*S$102+T$102</f>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="Q44" s="2">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="AC44" s="2">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AD44" s="2">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="AE44" s="2">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="AF44" s="2">
@@ -26433,27 +26389,27 @@
         <v>0</v>
       </c>
       <c r="AH44" s="2">
-        <f>AVERAGE(F44,J44,N44)</f>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="AI44" s="2">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="AJ44" s="2">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="AK44" s="2">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="AL44" s="2" t="e">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>#NUM!</v>
       </c>
       <c r="AM44" s="2" t="e">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -26479,11 +26435,11 @@
         <v>0</v>
       </c>
       <c r="H45" s="2">
-        <f>D45*C$102+D$102</f>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="I45" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="J45" s="2">
@@ -26495,11 +26451,11 @@
         <v>0</v>
       </c>
       <c r="L45" s="2">
-        <f>D45*L$102+M$102</f>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="M45" s="2">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="N45" s="2">
@@ -26511,23 +26467,23 @@
         <v>0</v>
       </c>
       <c r="P45" s="2">
-        <f>D45*S$102+T$102</f>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="Q45" s="2">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="AC45" s="2">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AD45" s="2">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="AE45" s="2">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="AF45" s="2">
@@ -26539,27 +26495,27 @@
         <v>0</v>
       </c>
       <c r="AH45" s="2">
-        <f>AVERAGE(F45,J45,N45)</f>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="AI45" s="2">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="AJ45" s="2">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="AK45" s="2">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="AL45" s="2" t="e">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>#NUM!</v>
       </c>
       <c r="AM45" s="2" t="e">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -26585,11 +26541,11 @@
         <v>0</v>
       </c>
       <c r="H46" s="2">
-        <f>D46*C$102+D$102</f>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="I46" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="J46" s="2">
@@ -26601,11 +26557,11 @@
         <v>0</v>
       </c>
       <c r="L46" s="2">
-        <f>D46*L$102+M$102</f>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="M46" s="2">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="N46" s="2">
@@ -26617,11 +26573,11 @@
         <v>0</v>
       </c>
       <c r="P46" s="2">
-        <f>D46*S$102+T$102</f>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="Q46" s="2">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="AC46" s="2">
@@ -26645,52 +26601,52 @@
         <v>0</v>
       </c>
       <c r="AH46" s="2">
-        <f>AVERAGE(F46,J46,N46)</f>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="AI46" s="2">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="AJ46" s="2">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="AK46" s="2">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="AL46" s="2" t="e">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>#NUM!</v>
       </c>
       <c r="AM46" s="2" t="e">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>#NUM!</v>
       </c>
-      <c r="AO46" s="4" t="s">
+      <c r="AO46" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="AP46" s="4"/>
-      <c r="AQ46" s="4"/>
-      <c r="AR46" s="4"/>
-      <c r="AT46" s="13" t="s">
+      <c r="AP46" s="14"/>
+      <c r="AQ46" s="14"/>
+      <c r="AR46" s="14"/>
+      <c r="AT46" s="3" t="s">
         <v>38</v>
       </c>
       <c r="AU46" s="2" t="e">
         <f>5.029*PI()^2 *AF7 /(AP47 *AB12^ 2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BF46" s="4" t="s">
+      <c r="BF46" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="BG46" s="4"/>
-      <c r="BH46" s="4"/>
-      <c r="BI46" s="4"/>
-      <c r="BK46" s="20" t="s">
+      <c r="BG46" s="14"/>
+      <c r="BH46" s="14"/>
+      <c r="BI46" s="14"/>
+      <c r="BK46" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="BL46" s="21" t="e">
+      <c r="BL46" s="18" t="e">
         <f>(BG47-2)/2</f>
         <v>#VALUE!</v>
       </c>
@@ -26717,11 +26673,11 @@
         <v>0</v>
       </c>
       <c r="H47" s="2">
-        <f>D47*C$102+D$102</f>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="I47" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="J47" s="2">
@@ -26733,11 +26689,11 @@
         <v>0</v>
       </c>
       <c r="L47" s="2">
-        <f>D47*L$102+M$102</f>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="M47" s="2">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="N47" s="2">
@@ -26749,30 +26705,30 @@
         <v>0</v>
       </c>
       <c r="P47" s="2">
-        <f>D47*S$102+T$102</f>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="Q47" s="2">
-        <f t="shared" si="162"/>
-        <v>0</v>
-      </c>
-      <c r="S47" s="18" t="s">
+        <f t="shared" si="165"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="T47" s="18"/>
-      <c r="U47" s="18"/>
-      <c r="V47" s="18"/>
-      <c r="W47" s="18"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
       <c r="AC47" s="2">
-        <f t="shared" ref="AC47" si="171">C47</f>
+        <f t="shared" ref="AC47" si="174">C47</f>
         <v>0</v>
       </c>
       <c r="AD47" s="2">
-        <f t="shared" ref="AD47" si="172">D47</f>
+        <f t="shared" ref="AD47" si="175">D47</f>
         <v>0</v>
       </c>
       <c r="AE47" s="2">
-        <f t="shared" ref="AE47" si="173">E47</f>
+        <f t="shared" ref="AE47" si="176">E47</f>
         <v>0</v>
       </c>
       <c r="AF47" s="2">
@@ -26784,30 +26740,30 @@
         <v>0</v>
       </c>
       <c r="AH47" s="2">
-        <f>AVERAGE(F47,J47,N47)</f>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="AI47" s="2">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="AJ47" s="2">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="AK47" s="2">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="AL47" s="2" t="e">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>#NUM!</v>
       </c>
       <c r="AM47" s="2" t="e">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>#NUM!</v>
       </c>
-      <c r="AO47" s="5" t="s">
+      <c r="AO47" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AP47" s="2">
@@ -26817,17 +26773,17 @@
       <c r="AQ47" s="2">
         <v>0</v>
       </c>
-      <c r="AR47" s="5" t="s">
+      <c r="AR47" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AT47" s="13" t="s">
+      <c r="AT47" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AU47" s="22" t="e">
+      <c r="AU47" s="10" t="e">
         <f>SQRT((PI()^2*5.029/((AP47*AB12^2)^2) * AP47 *AB12^ 2*AF8 )^2+(PI()^2*5.029/((AP47*AB12^2)^2)*AF7*AB12^2*AP48)^2+(PI()^2*5.029/((AP47*AB12^2)^2)*AF7*AB12*AP47*AB13)^2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BF47" s="5" t="s">
+      <c r="BF47" s="4" t="s">
         <v>18</v>
       </c>
       <c r="BG47" s="2" t="e">
@@ -26837,11 +26793,11 @@
       <c r="BH47" s="2" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="BI47" s="5" t="s">
+      <c r="BI47" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="BK47" s="20"/>
-      <c r="BL47" s="21"/>
+      <c r="BK47" s="15"/>
+      <c r="BL47" s="18"/>
     </row>
     <row r="48" spans="3:64" x14ac:dyDescent="0.3">
       <c r="C48" s="2">
@@ -26865,11 +26821,11 @@
         <v>0</v>
       </c>
       <c r="H48" s="2">
-        <f>D48*C$102+D$102</f>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="I48" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="J48" s="2">
@@ -26881,11 +26837,11 @@
         <v>0</v>
       </c>
       <c r="L48" s="2">
-        <f>D48*L$102+M$102</f>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="M48" s="2">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="N48" s="2">
@@ -26897,11 +26853,11 @@
         <v>0</v>
       </c>
       <c r="P48" s="2">
-        <f>D48*S$102+T$102</f>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="Q48" s="2">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="AC48" s="2">
@@ -26925,30 +26881,30 @@
         <v>0</v>
       </c>
       <c r="AH48" s="2">
-        <f>AVERAGE(F48,J48,N48)</f>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="AI48" s="2">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="AJ48" s="2">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="AK48" s="2">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="AL48" s="2" t="e">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>#NUM!</v>
       </c>
       <c r="AM48" s="2" t="e">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>#NUM!</v>
       </c>
-      <c r="AO48" s="5" t="s">
+      <c r="AO48" s="4" t="s">
         <v>30</v>
       </c>
       <c r="AP48" s="2">
@@ -26957,17 +26913,17 @@
       <c r="AQ48" s="2">
         <v>0</v>
       </c>
-      <c r="AR48" s="5" t="s">
+      <c r="AR48" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AT48" s="13" t="s">
+      <c r="AT48" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AU48" s="9" t="e">
+      <c r="AU48" s="6" t="e">
         <f>AU47/AU46</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BF48" s="5" t="s">
+      <c r="BF48" s="4" t="s">
         <v>30</v>
       </c>
       <c r="BG48" s="2" t="e">
@@ -26976,13 +26932,13 @@
       <c r="BH48" s="2" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="BI48" s="5" t="s">
+      <c r="BI48" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="BK48" s="20" t="s">
+      <c r="BK48" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="BL48" s="21" t="e">
+      <c r="BL48" s="18" t="e">
         <f>BG48/BG47</f>
         <v>#VALUE!</v>
       </c>
@@ -27009,11 +26965,11 @@
         <v>0</v>
       </c>
       <c r="H49" s="2">
-        <f>D49*C$102+D$102</f>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="I49" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="J49" s="2">
@@ -27025,11 +26981,11 @@
         <v>0</v>
       </c>
       <c r="L49" s="2">
-        <f>D49*L$102+M$102</f>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="M49" s="2">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="N49" s="2">
@@ -27041,11 +26997,11 @@
         <v>0</v>
       </c>
       <c r="P49" s="2">
-        <f>D49*S$102+T$102</f>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="Q49" s="2">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="AC49" s="2">
@@ -27053,11 +27009,11 @@
         <v>0</v>
       </c>
       <c r="AD49" s="2">
-        <f t="shared" ref="AD49" si="174">D49</f>
+        <f t="shared" ref="AD49" si="177">D49</f>
         <v>0</v>
       </c>
       <c r="AE49" s="2">
-        <f t="shared" ref="AE49" si="175">E49</f>
+        <f t="shared" ref="AE49" si="178">E49</f>
         <v>0</v>
       </c>
       <c r="AF49" s="2">
@@ -27069,30 +27025,30 @@
         <v>0</v>
       </c>
       <c r="AH49" s="2">
-        <f>AVERAGE(F49,J49,N49)</f>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="AI49" s="2">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="AJ49" s="2">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="AK49" s="2">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="AL49" s="2" t="e">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>#NUM!</v>
       </c>
       <c r="AM49" s="2" t="e">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>#NUM!</v>
       </c>
-      <c r="AO49" s="5" t="s">
+      <c r="AO49" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AP49" s="2">
@@ -27101,17 +27057,17 @@
       <c r="AQ49" s="2">
         <v>0</v>
       </c>
-      <c r="AR49" s="5" t="s">
+      <c r="AR49" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AT49" s="13" t="s">
+      <c r="AT49" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AU49" s="22">
+      <c r="AU49" s="10">
         <f>200*10^9</f>
         <v>200000000000</v>
       </c>
-      <c r="BF49" s="5" t="s">
+      <c r="BF49" s="4" t="s">
         <v>31</v>
       </c>
       <c r="BG49" s="2" t="e">
@@ -27120,44 +27076,44 @@
       <c r="BH49" s="2" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="BI49" s="5" t="s">
+      <c r="BI49" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="BK49" s="20"/>
-      <c r="BL49" s="21"/>
+      <c r="BK49" s="15"/>
+      <c r="BL49" s="18"/>
     </row>
     <row r="50" spans="3:64" x14ac:dyDescent="0.3">
-      <c r="AT50" s="13" t="s">
+      <c r="AT50" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AU50" s="9" t="e">
+      <c r="AU50" s="6" t="e">
         <f>(AU46-AU49)/AU49</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="75" spans="8:26" x14ac:dyDescent="0.3">
-      <c r="H75" s="5" t="s">
+      <c r="H75" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I75" s="5" t="s">
+      <c r="I75" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="P75" s="5" t="s">
+      <c r="P75" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Q75" s="5" t="s">
+      <c r="Q75" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Y75" s="5" t="s">
+      <c r="Y75" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Z75" s="5" t="s">
+      <c r="Z75" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="76" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H76" s="2" t="e">
-        <f>LOG(C37/100)</f>
+        <f t="shared" ref="H76:H88" si="179">LOG(C37/100)</f>
         <v>#NUM!</v>
       </c>
       <c r="I76" s="2" t="e">
@@ -27183,7 +27139,7 @@
     </row>
     <row r="77" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H77" s="2" t="e">
-        <f>LOG(C38/100)</f>
+        <f t="shared" si="179"/>
         <v>#NUM!</v>
       </c>
       <c r="I77" s="2" t="e">
@@ -27191,7 +27147,7 @@
         <v>#NUM!</v>
       </c>
       <c r="P77" s="2" t="e">
-        <f t="shared" ref="P77:P88" si="176">H77</f>
+        <f t="shared" ref="P77:P88" si="180">H77</f>
         <v>#NUM!</v>
       </c>
       <c r="Q77" s="2" t="e">
@@ -27199,7 +27155,7 @@
         <v>#NUM!</v>
       </c>
       <c r="Y77" s="2" t="e">
-        <f t="shared" ref="Y77:Y88" si="177">P77</f>
+        <f t="shared" ref="Y77:Y88" si="181">P77</f>
         <v>#NUM!</v>
       </c>
       <c r="Z77" s="2" t="e">
@@ -27209,7 +27165,7 @@
     </row>
     <row r="78" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H78" s="2" t="e">
-        <f>LOG(C39/100)</f>
+        <f t="shared" si="179"/>
         <v>#NUM!</v>
       </c>
       <c r="I78" s="2" t="e">
@@ -27217,7 +27173,7 @@
         <v>#NUM!</v>
       </c>
       <c r="P78" s="2" t="e">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>#NUM!</v>
       </c>
       <c r="Q78" s="2" t="e">
@@ -27225,7 +27181,7 @@
         <v>#NUM!</v>
       </c>
       <c r="Y78" s="2" t="e">
-        <f t="shared" si="177"/>
+        <f t="shared" si="181"/>
         <v>#NUM!</v>
       </c>
       <c r="Z78" s="2" t="e">
@@ -27235,7 +27191,7 @@
     </row>
     <row r="79" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H79" s="2" t="e">
-        <f>LOG(C40/100)</f>
+        <f t="shared" si="179"/>
         <v>#NUM!</v>
       </c>
       <c r="I79" s="2" t="e">
@@ -27243,7 +27199,7 @@
         <v>#NUM!</v>
       </c>
       <c r="P79" s="2" t="e">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>#NUM!</v>
       </c>
       <c r="Q79" s="2" t="e">
@@ -27251,7 +27207,7 @@
         <v>#NUM!</v>
       </c>
       <c r="Y79" s="2" t="e">
-        <f t="shared" si="177"/>
+        <f t="shared" si="181"/>
         <v>#NUM!</v>
       </c>
       <c r="Z79" s="2" t="e">
@@ -27261,7 +27217,7 @@
     </row>
     <row r="80" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H80" s="2" t="e">
-        <f>LOG(C41/100)</f>
+        <f t="shared" si="179"/>
         <v>#NUM!</v>
       </c>
       <c r="I80" s="2" t="e">
@@ -27269,7 +27225,7 @@
         <v>#NUM!</v>
       </c>
       <c r="P80" s="2" t="e">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>#NUM!</v>
       </c>
       <c r="Q80" s="2" t="e">
@@ -27277,7 +27233,7 @@
         <v>#NUM!</v>
       </c>
       <c r="Y80" s="2" t="e">
-        <f t="shared" si="177"/>
+        <f t="shared" si="181"/>
         <v>#NUM!</v>
       </c>
       <c r="Z80" s="2" t="e">
@@ -27287,7 +27243,7 @@
     </row>
     <row r="81" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H81" s="2" t="e">
-        <f>LOG(C42/100)</f>
+        <f t="shared" si="179"/>
         <v>#NUM!</v>
       </c>
       <c r="I81" s="2" t="e">
@@ -27295,7 +27251,7 @@
         <v>#NUM!</v>
       </c>
       <c r="P81" s="2" t="e">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>#NUM!</v>
       </c>
       <c r="Q81" s="2" t="e">
@@ -27303,7 +27259,7 @@
         <v>#NUM!</v>
       </c>
       <c r="Y81" s="2" t="e">
-        <f t="shared" si="177"/>
+        <f t="shared" si="181"/>
         <v>#NUM!</v>
       </c>
       <c r="Z81" s="2" t="e">
@@ -27313,7 +27269,7 @@
     </row>
     <row r="82" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H82" s="2" t="e">
-        <f>LOG(C43/100)</f>
+        <f t="shared" si="179"/>
         <v>#NUM!</v>
       </c>
       <c r="I82" s="2" t="e">
@@ -27321,7 +27277,7 @@
         <v>#NUM!</v>
       </c>
       <c r="P82" s="2" t="e">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>#NUM!</v>
       </c>
       <c r="Q82" s="2" t="e">
@@ -27329,7 +27285,7 @@
         <v>#NUM!</v>
       </c>
       <c r="Y82" s="2" t="e">
-        <f t="shared" si="177"/>
+        <f t="shared" si="181"/>
         <v>#NUM!</v>
       </c>
       <c r="Z82" s="2" t="e">
@@ -27339,7 +27295,7 @@
     </row>
     <row r="83" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H83" s="2" t="e">
-        <f>LOG(C44/100)</f>
+        <f t="shared" si="179"/>
         <v>#NUM!</v>
       </c>
       <c r="I83" s="2" t="e">
@@ -27347,7 +27303,7 @@
         <v>#NUM!</v>
       </c>
       <c r="P83" s="2" t="e">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>#NUM!</v>
       </c>
       <c r="Q83" s="2" t="e">
@@ -27355,7 +27311,7 @@
         <v>#NUM!</v>
       </c>
       <c r="Y83" s="2" t="e">
-        <f t="shared" si="177"/>
+        <f t="shared" si="181"/>
         <v>#NUM!</v>
       </c>
       <c r="Z83" s="2" t="e">
@@ -27365,7 +27321,7 @@
     </row>
     <row r="84" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H84" s="2" t="e">
-        <f>LOG(C45/100)</f>
+        <f t="shared" si="179"/>
         <v>#NUM!</v>
       </c>
       <c r="I84" s="2" t="e">
@@ -27373,7 +27329,7 @@
         <v>#NUM!</v>
       </c>
       <c r="P84" s="2" t="e">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>#NUM!</v>
       </c>
       <c r="Q84" s="2" t="e">
@@ -27381,7 +27337,7 @@
         <v>#NUM!</v>
       </c>
       <c r="Y84" s="2" t="e">
-        <f t="shared" si="177"/>
+        <f t="shared" si="181"/>
         <v>#NUM!</v>
       </c>
       <c r="Z84" s="2" t="e">
@@ -27391,7 +27347,7 @@
     </row>
     <row r="85" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H85" s="2" t="e">
-        <f>LOG(C46/100)</f>
+        <f t="shared" si="179"/>
         <v>#NUM!</v>
       </c>
       <c r="I85" s="2" t="e">
@@ -27399,7 +27355,7 @@
         <v>#NUM!</v>
       </c>
       <c r="P85" s="2" t="e">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>#NUM!</v>
       </c>
       <c r="Q85" s="2" t="e">
@@ -27407,7 +27363,7 @@
         <v>#NUM!</v>
       </c>
       <c r="Y85" s="2" t="e">
-        <f t="shared" si="177"/>
+        <f t="shared" si="181"/>
         <v>#NUM!</v>
       </c>
       <c r="Z85" s="2" t="e">
@@ -27417,7 +27373,7 @@
     </row>
     <row r="86" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H86" s="2" t="e">
-        <f>LOG(C47/100)</f>
+        <f t="shared" si="179"/>
         <v>#NUM!</v>
       </c>
       <c r="I86" s="2" t="e">
@@ -27425,7 +27381,7 @@
         <v>#NUM!</v>
       </c>
       <c r="P86" s="2" t="e">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>#NUM!</v>
       </c>
       <c r="Q86" s="2" t="e">
@@ -27433,7 +27389,7 @@
         <v>#NUM!</v>
       </c>
       <c r="Y86" s="2" t="e">
-        <f t="shared" si="177"/>
+        <f t="shared" si="181"/>
         <v>#NUM!</v>
       </c>
       <c r="Z86" s="2" t="e">
@@ -27443,7 +27399,7 @@
     </row>
     <row r="87" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H87" s="2" t="e">
-        <f>LOG(C48/100)</f>
+        <f t="shared" si="179"/>
         <v>#NUM!</v>
       </c>
       <c r="I87" s="2" t="e">
@@ -27451,7 +27407,7 @@
         <v>#NUM!</v>
       </c>
       <c r="P87" s="2" t="e">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>#NUM!</v>
       </c>
       <c r="Q87" s="2" t="e">
@@ -27459,7 +27415,7 @@
         <v>#NUM!</v>
       </c>
       <c r="Y87" s="2" t="e">
-        <f t="shared" si="177"/>
+        <f t="shared" si="181"/>
         <v>#NUM!</v>
       </c>
       <c r="Z87" s="2" t="e">
@@ -27469,7 +27425,7 @@
     </row>
     <row r="88" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H88" s="2" t="e">
-        <f>LOG(C49/100)</f>
+        <f t="shared" si="179"/>
         <v>#NUM!</v>
       </c>
       <c r="I88" s="2" t="e">
@@ -27477,7 +27433,7 @@
         <v>#NUM!</v>
       </c>
       <c r="P88" s="2" t="e">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>#NUM!</v>
       </c>
       <c r="Q88" s="2" t="e">
@@ -27485,7 +27441,7 @@
         <v>#NUM!</v>
       </c>
       <c r="Y88" s="2" t="e">
-        <f t="shared" si="177"/>
+        <f t="shared" si="181"/>
         <v>#NUM!</v>
       </c>
       <c r="Z88" s="2" t="e">
@@ -27494,27 +27450,27 @@
       </c>
     </row>
     <row r="101" spans="2:21" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="K101" s="4" t="s">
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="K101" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L101" s="4"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="4"/>
-      <c r="R101" s="4" t="s">
+      <c r="L101" s="14"/>
+      <c r="M101" s="14"/>
+      <c r="N101" s="14"/>
+      <c r="R101" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="S101" s="4"/>
-      <c r="T101" s="4"/>
-      <c r="U101" s="4"/>
+      <c r="S101" s="14"/>
+      <c r="T101" s="14"/>
+      <c r="U101" s="14"/>
     </row>
     <row r="102" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C102" s="2">
@@ -27524,10 +27480,10 @@
       <c r="D102" s="2">
         <v>0</v>
       </c>
-      <c r="E102" s="5" t="s">
+      <c r="E102" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K102" s="5" t="s">
+      <c r="K102" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L102" s="2">
@@ -27537,10 +27493,10 @@
       <c r="M102" s="2">
         <v>0</v>
       </c>
-      <c r="N102" s="5" t="s">
+      <c r="N102" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="R102" s="5" t="s">
+      <c r="R102" s="4" t="s">
         <v>18</v>
       </c>
       <c r="S102" s="2">
@@ -27550,12 +27506,12 @@
       <c r="T102" s="2">
         <v>0</v>
       </c>
-      <c r="U102" s="5" t="s">
+      <c r="U102" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="103" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C103" s="2">
@@ -27564,10 +27520,10 @@
       <c r="D103" s="2">
         <v>0</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="E103" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K103" s="5" t="s">
+      <c r="K103" s="4" t="s">
         <v>30</v>
       </c>
       <c r="L103" s="2">
@@ -27576,10 +27532,10 @@
       <c r="M103" s="2">
         <v>0</v>
       </c>
-      <c r="N103" s="5" t="s">
+      <c r="N103" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R103" s="5" t="s">
+      <c r="R103" s="4" t="s">
         <v>30</v>
       </c>
       <c r="S103" s="2">
@@ -27588,12 +27544,12 @@
       <c r="T103" s="2">
         <v>0</v>
       </c>
-      <c r="U103" s="5" t="s">
+      <c r="U103" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="104" spans="2:21" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C104" s="2">
@@ -27602,10 +27558,10 @@
       <c r="D104" s="2">
         <v>0</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="E104" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K104" s="5" t="s">
+      <c r="K104" s="4" t="s">
         <v>31</v>
       </c>
       <c r="L104" s="2">
@@ -27614,10 +27570,10 @@
       <c r="M104" s="2">
         <v>0</v>
       </c>
-      <c r="N104" s="5" t="s">
+      <c r="N104" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R104" s="5" t="s">
+      <c r="R104" s="4" t="s">
         <v>31</v>
       </c>
       <c r="S104" s="2">
@@ -27626,32 +27582,32 @@
       <c r="T104" s="2">
         <v>0</v>
       </c>
-      <c r="U104" s="5" t="s">
+      <c r="U104" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="106" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="K106" s="4" t="s">
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="K106" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="L106" s="4"/>
-      <c r="M106" s="4"/>
-      <c r="N106" s="4"/>
-      <c r="R106" s="4" t="s">
+      <c r="L106" s="14"/>
+      <c r="M106" s="14"/>
+      <c r="N106" s="14"/>
+      <c r="R106" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="S106" s="4"/>
-      <c r="T106" s="4"/>
-      <c r="U106" s="4"/>
+      <c r="S106" s="14"/>
+      <c r="T106" s="14"/>
+      <c r="U106" s="14"/>
     </row>
     <row r="107" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C107" s="2" t="e">
@@ -27661,10 +27617,10 @@
       <c r="D107" s="2" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="E107" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K107" s="5" t="s">
+      <c r="K107" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L107" s="2" t="e">
@@ -27674,10 +27630,10 @@
       <c r="M107" s="2" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="N107" s="5" t="s">
+      <c r="N107" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="R107" s="5" t="s">
+      <c r="R107" s="4" t="s">
         <v>18</v>
       </c>
       <c r="S107" s="2" t="e">
@@ -27687,12 +27643,12 @@
       <c r="T107" s="2" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="U107" s="5" t="s">
+      <c r="U107" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="108" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C108" s="2" t="e">
@@ -27701,10 +27657,10 @@
       <c r="D108" s="2" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="E108" s="5" t="s">
+      <c r="E108" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K108" s="5" t="s">
+      <c r="K108" s="4" t="s">
         <v>30</v>
       </c>
       <c r="L108" s="2" t="e">
@@ -27713,10 +27669,10 @@
       <c r="M108" s="2" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="N108" s="5" t="s">
+      <c r="N108" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R108" s="5" t="s">
+      <c r="R108" s="4" t="s">
         <v>30</v>
       </c>
       <c r="S108" s="2" t="e">
@@ -27725,12 +27681,12 @@
       <c r="T108" s="2" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="U108" s="5" t="s">
+      <c r="U108" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="109" spans="2:21" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C109" s="2" t="e">
@@ -27739,10 +27695,10 @@
       <c r="D109" s="2" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="E109" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K109" s="5" t="s">
+      <c r="K109" s="4" t="s">
         <v>31</v>
       </c>
       <c r="L109" s="2" t="e">
@@ -27751,10 +27707,10 @@
       <c r="M109" s="2" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="N109" s="5" t="s">
+      <c r="N109" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R109" s="5" t="s">
+      <c r="R109" s="4" t="s">
         <v>31</v>
       </c>
       <c r="S109" s="2" t="e">
@@ -27763,26 +27719,26 @@
       <c r="T109" s="2" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="U109" s="5" t="s">
+      <c r="U109" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="111" spans="2:21" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C111" s="13" t="s">
+      <c r="C111" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D111" s="2" t="e">
         <f>5.029*PI()^2 *AF7 /(C102 * AB12^2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L111" s="13" t="s">
+      <c r="L111" s="3" t="s">
         <v>38</v>
       </c>
       <c r="M111" s="2" t="e">
         <f>5.029*PI()^2 *AF7 /(L102 * AB12^2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R111" s="13" t="s">
+      <c r="R111" s="3" t="s">
         <v>38</v>
       </c>
       <c r="S111" s="2" t="e">
@@ -27791,158 +27747,158 @@
       </c>
     </row>
     <row r="112" spans="2:21" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C112" s="13" t="s">
+      <c r="C112" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D112" s="22" t="e">
+      <c r="D112" s="10" t="e">
         <f>SQRT((PI()^2*5.029/((C102*AB12^2)^2) * C102 * AB12^2*AF8 )^2+(PI()^2*5.029/((C102*AB12^2)^2)*AF7*AB12^2*C103)^2+(PI()^2*5.029/((C102*AB12^2)^2)*AF7*AB12*C102*AB13)^2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L112" s="13" t="s">
+      <c r="L112" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M112" s="22" t="e">
+      <c r="M112" s="10" t="e">
         <f>SQRT((PI()^2*5.029/((L102*AB12^2)^2) * L102 * AB12^2*AF8 )^2+(PI()^2*5.029/((L102*AB12^2)^2)*AF7*AB12^2*L103)^2+(PI()^2*5.029/((L102*AB12^2)^2)*AF7*AB12*L102*AB13)^2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R112" s="13" t="s">
+      <c r="R112" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="S112" s="22" t="e">
+      <c r="S112" s="10" t="e">
         <f>SQRT((PI()^2*5.029/((S102*AB12^2)^2) * S102 * AB12^2*AF8 )^2+(PI()^2*5.029/((S102*AB12^2)^2)*AF7*AB12^2*S103)^2+(PI()^2*5.029/((S102*AB12^2)^2)*AF7*AB12*S102*AB13)^2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="113" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C113" s="13" t="s">
+      <c r="C113" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D113" s="9" t="e">
+      <c r="D113" s="6" t="e">
         <f>D112/D111</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L113" s="13" t="s">
+      <c r="L113" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M113" s="9" t="e">
+      <c r="M113" s="6" t="e">
         <f>M112/M111</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R113" s="13" t="s">
+      <c r="R113" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S113" s="9" t="e">
+      <c r="S113" s="6" t="e">
         <f>S112/S111</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="114" spans="3:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C114" s="13" t="s">
+      <c r="C114" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D114" s="22">
+      <c r="D114" s="10">
         <f>200*10^9</f>
         <v>200000000000</v>
       </c>
-      <c r="L114" s="13" t="s">
+      <c r="L114" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M114" s="22">
+      <c r="M114" s="10">
         <f>200*10^9</f>
         <v>200000000000</v>
       </c>
-      <c r="R114" s="13" t="s">
+      <c r="R114" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="S114" s="22">
+      <c r="S114" s="10">
         <f>200*10^9</f>
         <v>200000000000</v>
       </c>
     </row>
     <row r="115" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C115" s="13" t="s">
+      <c r="C115" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D115" s="9" t="e">
+      <c r="D115" s="6" t="e">
         <f>(D111-D114)/D114</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L115" s="13" t="s">
+      <c r="L115" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M115" s="9" t="e">
+      <c r="M115" s="6" t="e">
         <f>(M111-M114)/M114</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R115" s="13" t="s">
+      <c r="R115" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="S115" s="9" t="e">
+      <c r="S115" s="6" t="e">
         <f>(S111-S114)/S114</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="117" spans="3:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C117" s="20" t="s">
+      <c r="C117" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D117" s="21" t="e">
+      <c r="D117" s="18" t="e">
         <f>(C107-2)/2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L117" s="20" t="s">
+      <c r="L117" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="M117" s="21" t="e">
+      <c r="M117" s="18" t="e">
         <f>(L107-2)/2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R117" s="20" t="s">
+      <c r="R117" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="S117" s="21" t="e">
+      <c r="S117" s="18" t="e">
         <f>(S107-2)/2</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="118" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C118" s="20"/>
-      <c r="D118" s="21"/>
-      <c r="L118" s="20"/>
-      <c r="M118" s="21"/>
-      <c r="R118" s="20"/>
-      <c r="S118" s="21"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="18"/>
+      <c r="L118" s="15"/>
+      <c r="M118" s="18"/>
+      <c r="R118" s="15"/>
+      <c r="S118" s="18"/>
     </row>
     <row r="119" spans="3:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C119" s="20" t="s">
+      <c r="C119" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D119" s="21" t="e">
+      <c r="D119" s="18" t="e">
         <f>C108/C107</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L119" s="20" t="s">
+      <c r="L119" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="M119" s="21" t="e">
+      <c r="M119" s="18" t="e">
         <f>L108/L107</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R119" s="20" t="s">
+      <c r="R119" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="S119" s="21" t="e">
+      <c r="S119" s="18" t="e">
         <f>S108/S107</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="120" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C120" s="20"/>
-      <c r="D120" s="21"/>
-      <c r="L120" s="20"/>
-      <c r="M120" s="21"/>
-      <c r="R120" s="20"/>
-      <c r="S120" s="21"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="18"/>
+      <c r="L120" s="15"/>
+      <c r="M120" s="18"/>
+      <c r="R120" s="15"/>
+      <c r="S120" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="237">
@@ -28096,6 +28052,24 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="D13:D14"/>
@@ -28106,83 +28080,65 @@
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="E29:E30"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="K27:K28"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="J21:J22"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K21:K22"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="K15:K16"/>
     <mergeCell ref="J23:J24"/>
     <mergeCell ref="J25:J26"/>
     <mergeCell ref="J27:J28"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="L31:L32"/>
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="L19:L20"/>
     <mergeCell ref="L21:L22"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="L31:L32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -28194,8 +28150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD81C672-1FC4-4604-8F58-C0ABA41C2E47}">
   <dimension ref="C4:AO65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BB33" sqref="BB33"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="81" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28211,66 +28167,66 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D4" s="15"/>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="14"/>
+      <c r="G4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="14" t="s">
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="7"/>
-      <c r="N4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="S4" s="15"/>
-      <c r="T4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="U4" s="4"/>
-      <c r="W4" s="4" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="N4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="S4" s="22"/>
+      <c r="T4" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="U4" s="14"/>
+      <c r="W4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
     </row>
     <row r="5" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D5" s="16"/>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="N5" s="24" t="s">
         <v>57</v>
@@ -28284,28 +28240,28 @@
         <f>SQRT((F11^2/8 * E12)^2+(E11/4*F11*F12)^2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S5" s="16"/>
-      <c r="T5" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="U5" s="5" t="s">
+      <c r="S5" s="23"/>
+      <c r="T5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="W5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="X5" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="Y5" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="Z5" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="6" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="E6" s="2"/>
@@ -28328,7 +28284,7 @@
         <f>SQRT(((H11^2+I11^2)/8*G12)^2+(G11/4*H11*H12)^2+(G11/4*I11*I12)^2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="4">
         <v>1</v>
       </c>
       <c r="T6" s="2"/>
@@ -28339,7 +28295,7 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>2</v>
       </c>
       <c r="E7" s="2"/>
@@ -28351,7 +28307,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="N7" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O7" s="24"/>
       <c r="P7" s="2" t="e">
@@ -28362,7 +28318,7 @@
         <f>SQRT((L11^2/12*J12)^2+(J11/6*L11*L12)^2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="4">
         <v>2</v>
       </c>
       <c r="T7" s="2"/>
@@ -28373,7 +28329,7 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>3</v>
       </c>
       <c r="E8" s="2"/>
@@ -28385,7 +28341,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="N8" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O8" s="24"/>
       <c r="P8" s="2" t="e">
@@ -28396,7 +28352,7 @@
         <f>SQRT(((2*K11^2+L11^2)/24*J12)^2+(J11/6*K11*K12)^2+(J11/12*L11*L12)^2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="4">
         <v>3</v>
       </c>
       <c r="T8" s="2"/>
@@ -28407,7 +28363,7 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>4</v>
       </c>
       <c r="E9" s="2"/>
@@ -28419,7 +28375,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="N9" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O9" s="24"/>
       <c r="P9" s="2" t="e">
@@ -28430,7 +28386,7 @@
         <f>SQRT(Q5^2+Q7^2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="4">
         <v>4</v>
       </c>
       <c r="T9" s="2"/>
@@ -28441,7 +28397,7 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>5</v>
       </c>
       <c r="E10" s="2"/>
@@ -28453,7 +28409,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="N10" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O10" s="24"/>
       <c r="P10" s="2" t="e">
@@ -28464,7 +28420,7 @@
         <f>SQRT(Q5^2+Q8^2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="4">
         <v>5</v>
       </c>
       <c r="T10" s="2"/>
@@ -28475,8 +28431,8 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D11" s="5" t="s">
-        <v>67</v>
+      <c r="D11" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="E11" s="2" t="e">
         <f>AVERAGE(E6:E10)/1000</f>
@@ -28511,7 +28467,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N11" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O11" s="24"/>
       <c r="P11" s="2" t="e">
@@ -28522,8 +28478,8 @@
         <f>SQRT(Q5^2+Q6^2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S11" s="5" t="s">
-        <v>67</v>
+      <c r="S11" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="T11" s="2" t="e">
         <f>AVERAGE(T6:T10)/1000</f>
@@ -28551,8 +28507,8 @@
       </c>
     </row>
     <row r="12" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D12" s="5" t="s">
-        <v>68</v>
+      <c r="D12" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="E12" s="2" t="e">
         <f>_xlfn.STDEV.P(E6:E10)/SQRT(5)</f>
@@ -28587,7 +28543,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O12" s="24"/>
       <c r="P12" s="2" t="e">
@@ -28598,8 +28554,8 @@
         <f>SQRT(Q5^2+Q6^2+Q8^2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S12" s="5" t="s">
-        <v>68</v>
+      <c r="S12" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="T12" s="2" t="e">
         <f t="shared" ref="T12:U12" si="3">_xlfn.STDEV.P(T6:T10)/SQRT(5)</f>
@@ -28628,50 +28584,50 @@
     </row>
     <row r="19" spans="3:41" ht="16.2" x14ac:dyDescent="0.35">
       <c r="C19" s="2"/>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I19" s="5" t="s">
+      <c r="H19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="K19" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="K19" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y19" s="14" t="s">
+      <c r="Y19" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB19" s="7"/>
-      <c r="AL19" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="4"/>
-      <c r="AO19" s="4"/>
+      <c r="AB19" s="21"/>
+      <c r="AL19" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM19" s="14"/>
+      <c r="AN19" s="14"/>
+      <c r="AO19" s="14"/>
     </row>
     <row r="20" spans="3:41" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C20" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="24" t="e">
+      <c r="C20" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="25" t="e">
         <f>P9</f>
         <v>#DIV/0!</v>
       </c>
@@ -28681,59 +28637,59 @@
         <f>F20/10</f>
         <v>0</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="12">
         <f>AVERAGE(G20:G22)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="12">
         <f>_xlfn.STDEV.P(G20:G22)/SQRT(3)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="12">
         <f>H20^2</f>
         <v>0</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="12">
         <f>ABS(2*H20*I20)</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="R20" s="5" t="s">
+      <c r="Q20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="W20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y20" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S20" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="T20" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="U20" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="V20" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="W20" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="X20" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y20" s="5" t="s">
+      <c r="Z20" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="Z20" s="5" t="s">
+      <c r="AA20" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AA20" s="5" t="s">
+      <c r="AB20" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AB20" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="AL20" s="5" t="s">
+      <c r="AL20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AM20" s="2" t="e">
@@ -28743,23 +28699,23 @@
       <c r="AN20" s="2" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="AO20" s="5" t="s">
+      <c r="AO20" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:41" x14ac:dyDescent="0.3">
-      <c r="C21" s="6"/>
-      <c r="D21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
         <f t="shared" ref="G21:G31" si="5">F21/10</f>
         <v>0</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
       <c r="Q21" s="2" t="e">
         <f>D20</f>
         <v>#DIV/0!</v>
@@ -28808,7 +28764,7 @@
         <f>U21-AA21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL21" s="5" t="s">
+      <c r="AL21" s="4" t="s">
         <v>30</v>
       </c>
       <c r="AM21" s="2" t="e">
@@ -28817,23 +28773,23 @@
       <c r="AN21" s="2" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="AO21" s="5" t="s">
+      <c r="AO21" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="3:41" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C22" s="6"/>
-      <c r="D22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
       <c r="Q22" s="2" t="e">
         <f>D23</f>
         <v>#DIV/0!</v>
@@ -28882,7 +28838,7 @@
         <f t="shared" ref="AB22:AB24" si="11">U22-AA22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL22" s="5" t="s">
+      <c r="AL22" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AM22" s="2" t="e">
@@ -28891,15 +28847,15 @@
       <c r="AN22" s="2" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="AO22" s="5" t="s">
+      <c r="AO22" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="23" spans="3:41" x14ac:dyDescent="0.3">
-      <c r="C23" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="24" t="e">
+      <c r="C23" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="25" t="e">
         <f>P10</f>
         <v>#DIV/0!</v>
       </c>
@@ -28909,20 +28865,20 @@
         <f>F23/10</f>
         <v>0</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="12">
         <f>AVERAGE(G23:G25)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="12">
         <f>_xlfn.STDEV.P(G23:G25)/SQRT(3)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="3">
-        <f t="shared" ref="J23:J31" si="12">H23^2</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <f t="shared" ref="K23:K31" si="13">ABS(2*H23*I23)</f>
+      <c r="J23" s="12">
+        <f t="shared" ref="J23" si="12">H23^2</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="12">
+        <f t="shared" ref="K23" si="13">ABS(2*H23*I23)</f>
         <v>0</v>
       </c>
       <c r="Q23" s="2" t="e">
@@ -28975,18 +28931,18 @@
       </c>
     </row>
     <row r="24" spans="3:41" x14ac:dyDescent="0.3">
-      <c r="C24" s="6"/>
-      <c r="D24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
       <c r="Q24" s="2" t="e">
         <f>D29</f>
         <v>#DIV/0!</v>
@@ -29036,43 +28992,43 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL24" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AM24" s="24"/>
       <c r="AN24" s="24"/>
-      <c r="AO24" s="9" t="e">
+      <c r="AO24" s="6" t="e">
         <f>(AM20-2)/2</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="25" spans="3:41" x14ac:dyDescent="0.3">
-      <c r="C25" s="6"/>
-      <c r="D25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
       <c r="AL25" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AM25" s="24"/>
       <c r="AN25" s="24"/>
-      <c r="AO25" s="9" t="e">
+      <c r="AO25" s="6" t="e">
         <f>AM21/AM20</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="26" spans="3:41" x14ac:dyDescent="0.3">
-      <c r="C26" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="24" t="e">
+      <c r="C26" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="25" t="e">
         <f>P11</f>
         <v>#DIV/0!</v>
       </c>
@@ -29082,63 +29038,63 @@
         <f>F26/10</f>
         <v>0</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="12">
         <f>AVERAGE(G26:G28)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="12">
         <f t="shared" ref="I26" si="14">_xlfn.STDEV.P(G26:G28)/SQRT(3)</f>
         <v>0</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="12">
         <f>H26^2</f>
         <v>0</v>
       </c>
-      <c r="K26" s="3">
-        <f t="shared" ref="K26:K31" si="15">ABS(2*H26*I26)</f>
+      <c r="K26" s="12">
+        <f t="shared" ref="K26" si="15">ABS(2*H26*I26)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="3:41" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C27" s="6"/>
-      <c r="D27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="P27" s="4" t="s">
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="P27" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="X27" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="X27" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
     </row>
     <row r="28" spans="3:41" x14ac:dyDescent="0.3">
-      <c r="C28" s="6"/>
-      <c r="D28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="P28" s="5" t="s">
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="P28" s="4" t="s">
         <v>18</v>
       </c>
       <c r="Q28" s="2" t="e">
@@ -29148,10 +29104,10 @@
       <c r="R28" s="2" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="S28" s="5" t="s">
+      <c r="S28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="X28" s="5" t="s">
+      <c r="X28" s="4" t="s">
         <v>18</v>
       </c>
       <c r="Y28" s="2" t="e">
@@ -29161,15 +29117,15 @@
       <c r="Z28" s="2" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="AA28" s="5" t="s">
+      <c r="AA28" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="3:41" x14ac:dyDescent="0.3">
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="24" t="e">
+      <c r="D29" s="25" t="e">
         <f>P12</f>
         <v>#DIV/0!</v>
       </c>
@@ -29179,23 +29135,23 @@
         <f>F29/10</f>
         <v>0</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="12">
         <f>AVERAGE(G29:G31)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="12">
         <f>_xlfn.STDEV.P(G29:G31)/SQRT(3)</f>
         <v>0</v>
       </c>
-      <c r="J29" s="3">
-        <f t="shared" ref="J29:J31" si="16">H29^2</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <f t="shared" ref="K29:K31" si="17">ABS(2*H29*I29)</f>
-        <v>0</v>
-      </c>
-      <c r="P29" s="5" t="s">
+      <c r="J29" s="12">
+        <f t="shared" ref="J29" si="16">H29^2</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="12">
+        <f t="shared" ref="K29" si="17">ABS(2*H29*I29)</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="4" t="s">
         <v>30</v>
       </c>
       <c r="Q29" s="2" t="e">
@@ -29204,10 +29160,10 @@
       <c r="R29" s="2" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="S29" s="5" t="s">
+      <c r="S29" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="X29" s="5" t="s">
+      <c r="X29" s="4" t="s">
         <v>30</v>
       </c>
       <c r="Y29" s="2" t="e">
@@ -29216,24 +29172,24 @@
       <c r="Z29" s="2" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="AA29" s="5" t="s">
+      <c r="AA29" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="30" spans="3:41" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C30" s="6"/>
-      <c r="D30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="P30" s="5" t="s">
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="P30" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Q30" s="2" t="e">
@@ -29242,10 +29198,10 @@
       <c r="R30" s="2" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="S30" s="5" t="s">
+      <c r="S30" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="X30" s="5" t="s">
+      <c r="X30" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Y30" s="2" t="e">
@@ -29254,40 +29210,40 @@
       <c r="Z30" s="2" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="AA30" s="5" t="s">
+      <c r="AA30" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="31" spans="3:41" x14ac:dyDescent="0.3">
-      <c r="C31" s="6"/>
-      <c r="D31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
     </row>
     <row r="65" spans="16:26" x14ac:dyDescent="0.3">
-      <c r="P65" s="13" t="s">
-        <v>106</v>
+      <c r="P65" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="Q65" s="2" t="e">
         <f>128*PI()*T11*Q28/U11^4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T65" s="13" t="s">
+      <c r="T65" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="U65" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="U65" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y65" s="13" t="s">
-        <v>106</v>
+      <c r="Y65" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="Z65" s="2" t="e">
         <f>128*PI()*T11/(Y28*U11^4)</f>
@@ -29296,11 +29252,16 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="J4:L4"/>
     <mergeCell ref="AL19:AO19"/>
     <mergeCell ref="AL25:AN25"/>
     <mergeCell ref="AL24:AN24"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="S4:S5"/>
     <mergeCell ref="P27:S27"/>
     <mergeCell ref="X27:AA27"/>
     <mergeCell ref="Y19:Z19"/>
@@ -29312,13 +29273,15 @@
     <mergeCell ref="K26:K28"/>
     <mergeCell ref="K23:K25"/>
     <mergeCell ref="K20:K22"/>
+    <mergeCell ref="AA19:AB19"/>
     <mergeCell ref="H23:H25"/>
     <mergeCell ref="H20:H22"/>
     <mergeCell ref="I29:I31"/>
     <mergeCell ref="I26:I28"/>
     <mergeCell ref="I23:I25"/>
     <mergeCell ref="I20:I22"/>
-    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="H26:H28"/>
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="D29:D31"/>
@@ -29326,15 +29289,7 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N9:O9"/>
     <mergeCell ref="D20:D22"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="S4:S5"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="D4:D5"/>
@@ -29343,6 +29298,7 @@
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="N4:P4"/>
+    <mergeCell ref="J4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
